--- a/Spectrophotometer/Content/Data.xlsx
+++ b/Spectrophotometer/Content/Data.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Стирол_ММА" sheetId="1" r:id="rId1"/>
+    <sheet name="Стирол и ММА" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>Стирол V1 (мл)</t>
   </si>
@@ -71,9 +71,6 @@
   </si>
   <si>
     <t xml:space="preserve"> - данные, которые считываются программой</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - данные, которые не нужны программе</t>
   </si>
   <si>
     <t>Имя первого мономера:</t>
@@ -140,6 +137,12 @@
   </si>
   <si>
     <t>Signal Factor</t>
+  </si>
+  <si>
+    <t>Cтирол</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - данные, которые не считываются программой</t>
   </si>
 </sst>
 </file>
@@ -417,16 +420,7 @@
   </cellStyleXfs>
   <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -460,9 +454,6 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -470,7 +461,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -777,7 +780,7 @@
   <dimension ref="A1:U31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B16" sqref="B16:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -788,720 +791,720 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" s="3" t="s">
+      <c r="L1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="4"/>
-      <c r="R1" s="3" t="s">
+      <c r="P1" s="33"/>
+      <c r="R1" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="4"/>
-      <c r="U1" s="2" t="s">
+      <c r="S1" s="33"/>
+      <c r="U1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="14">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2" s="13">
         <f>$P$2-A2</f>
         <v>5.5</v>
       </c>
-      <c r="C2" s="21">
+      <c r="C2" s="18">
         <f>$S$3/$S$4*A2</f>
         <v>8.6989918386941902E-3</v>
       </c>
-      <c r="D2" s="21">
+      <c r="D2" s="18">
         <f>$P$3/$P$4*B2</f>
         <v>5.1802836596084693E-2</v>
       </c>
-      <c r="E2" s="21">
+      <c r="E2" s="18">
         <f>C2/(C2+D2)</f>
         <v>0.14378064372173022</v>
       </c>
-      <c r="F2" s="21">
+      <c r="F2" s="18">
         <f>D2/(C2+D2)</f>
         <v>0.85621935627826973</v>
       </c>
-      <c r="G2" s="21">
+      <c r="G2" s="18">
         <f>$S$5*E2+F2</f>
         <v>0.93098529101356942</v>
       </c>
-      <c r="H2" s="21">
+      <c r="H2" s="18">
         <f>$P$5*F2+E2</f>
         <v>0.53764154760973426</v>
       </c>
-      <c r="I2" s="21">
+      <c r="I2" s="18">
         <f>E2/F2</f>
         <v>0.16792500971561986</v>
       </c>
-      <c r="J2" s="21">
+      <c r="J2" s="18">
         <f>I2*G2/H2</f>
         <v>0.2907805669662169</v>
       </c>
-      <c r="K2" s="22">
+      <c r="K2" s="19">
         <v>0.2253</v>
       </c>
-      <c r="L2" s="18">
+      <c r="L2" s="15">
         <f>K2*$U$2</f>
         <v>0.31541999999999998</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="27">
+      <c r="P2" s="24">
         <v>6.5</v>
       </c>
-      <c r="R2" s="5"/>
-      <c r="S2" s="9"/>
-      <c r="U2" s="26">
+      <c r="R2" s="2"/>
+      <c r="S2" s="6"/>
+      <c r="U2" s="23">
         <v>1.4</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="14">
+      <c r="A3" s="11">
         <v>1.3</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="13">
         <f t="shared" ref="B3:B13" si="0">$P$2-A3</f>
         <v>5.2</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="18">
         <f t="shared" ref="C3:C13" si="1">$S$3/$S$4*A3</f>
         <v>1.1308689390302447E-2</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="18">
         <f t="shared" ref="D3:D13" si="2">$P$3/$P$4*B3</f>
         <v>4.897722732720735E-2</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="18">
         <f t="shared" ref="E3:E13" si="3">C3/(C3+D3)</f>
         <v>0.18758426521559196</v>
       </c>
-      <c r="F3" s="21">
+      <c r="F3" s="18">
         <f t="shared" ref="F3:F13" si="4">D3/(C3+D3)</f>
         <v>0.81241573478440798</v>
       </c>
-      <c r="G3" s="21">
+      <c r="G3" s="18">
         <f t="shared" ref="G3:G13" si="5">$S$5*E3+F3</f>
         <v>0.90995955269651585</v>
       </c>
-      <c r="H3" s="21">
+      <c r="H3" s="18">
         <f t="shared" ref="H3:H13" si="6">$P$5*F3+E3</f>
         <v>0.56129550321641963</v>
       </c>
-      <c r="I3" s="21">
+      <c r="I3" s="18">
         <f t="shared" ref="I3:I13" si="7">E3/F3</f>
         <v>0.23089688835897729</v>
       </c>
-      <c r="J3" s="21">
+      <c r="J3" s="18">
         <f t="shared" ref="J3:J13" si="8">I3*G3/H3</f>
         <v>0.37432480404023671</v>
       </c>
-      <c r="K3" s="23">
+      <c r="K3" s="20">
         <v>0.27229999999999999</v>
       </c>
-      <c r="L3" s="18">
+      <c r="L3" s="15">
         <f t="shared" ref="L3:L13" si="9">K3*$U$2</f>
         <v>0.38121999999999995</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="O3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="27">
+      <c r="P3" s="24">
         <v>0.94299999999999995</v>
       </c>
-      <c r="R3" s="6" t="s">
+      <c r="R3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="28">
+      <c r="S3" s="25">
         <v>0.90600000000000003</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="14">
+      <c r="A4" s="11">
         <v>1.6</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="13">
         <f t="shared" si="0"/>
         <v>4.9000000000000004</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="18">
         <f t="shared" si="1"/>
         <v>1.3918386941910705E-2</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="18">
         <f t="shared" si="2"/>
         <v>4.6151618058330006E-2</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="18">
         <f t="shared" si="3"/>
         <v>0.23170277648312051</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="18">
         <f t="shared" si="4"/>
         <v>0.76829722351687946</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="18">
         <f t="shared" si="5"/>
         <v>0.88878266728810207</v>
       </c>
-      <c r="H4" s="21">
+      <c r="H4" s="18">
         <f t="shared" si="6"/>
         <v>0.58511949930088503</v>
       </c>
-      <c r="I4" s="21">
+      <c r="I4" s="18">
         <f t="shared" si="7"/>
         <v>0.30157960928519484</v>
       </c>
-      <c r="J4" s="21">
+      <c r="J4" s="18">
         <f t="shared" si="8"/>
         <v>0.45809228689260623</v>
       </c>
-      <c r="K4" s="23">
+      <c r="K4" s="20">
         <v>0.31380000000000002</v>
       </c>
-      <c r="L4" s="18">
+      <c r="L4" s="15">
         <f t="shared" si="9"/>
         <v>0.43931999999999999</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="O4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="P4" s="27">
+      <c r="P4" s="24">
         <v>100.12</v>
       </c>
-      <c r="R4" s="7" t="s">
+      <c r="R4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="S4" s="28">
+      <c r="S4" s="25">
         <v>104.15</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14">
+      <c r="A5" s="11">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="13">
         <f t="shared" si="0"/>
         <v>4.3</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="18">
         <f t="shared" si="1"/>
         <v>1.913778204512722E-2</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="18">
         <f t="shared" si="2"/>
         <v>4.0500399520575305E-2</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="18">
         <f t="shared" si="3"/>
         <v>0.32089814851318699</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="18">
         <f t="shared" si="4"/>
         <v>0.67910185148681301</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="18">
         <f t="shared" si="5"/>
         <v>0.84596888871367026</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H5" s="18">
         <f t="shared" si="6"/>
         <v>0.63328500019712097</v>
       </c>
-      <c r="I5" s="21">
+      <c r="I5" s="18">
         <f t="shared" si="7"/>
         <v>0.47253316687418612</v>
       </c>
-      <c r="J5" s="21">
+      <c r="J5" s="18">
         <f t="shared" si="8"/>
         <v>0.63122979059424733</v>
       </c>
-      <c r="K5" s="23">
+      <c r="K5" s="20">
         <v>0.38669999999999999</v>
       </c>
-      <c r="L5" s="18">
+      <c r="L5" s="15">
         <f t="shared" si="9"/>
         <v>0.54137999999999997</v>
       </c>
-      <c r="O5" s="8" t="s">
+      <c r="O5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="P5" s="27">
+      <c r="P5" s="24">
         <v>0.46</v>
       </c>
-      <c r="R5" s="8" t="s">
+      <c r="R5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S5" s="28">
+      <c r="S5" s="25">
         <v>0.52</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="14">
+      <c r="A6" s="11">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="13">
         <f t="shared" si="0"/>
         <v>4.2</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="18">
         <f t="shared" si="1"/>
         <v>2.0007681228996637E-2</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="18">
         <f t="shared" si="2"/>
         <v>3.9558529764282861E-2</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="18">
         <f t="shared" si="3"/>
         <v>0.33588977535022307</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="18">
         <f t="shared" si="4"/>
         <v>0.66411022464977698</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="18">
         <f t="shared" si="5"/>
         <v>0.83877290783189296</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H6" s="18">
         <f t="shared" si="6"/>
         <v>0.64138047868912051</v>
       </c>
-      <c r="I6" s="21">
+      <c r="I6" s="18">
         <f t="shared" si="7"/>
         <v>0.50577413640537883</v>
       </c>
-      <c r="J6" s="21">
+      <c r="J6" s="18">
         <f t="shared" si="8"/>
         <v>0.66143210963632992</v>
       </c>
-      <c r="K6" s="23">
+      <c r="K6" s="20">
         <v>0.3962</v>
       </c>
-      <c r="L6" s="18">
+      <c r="L6" s="15">
         <f t="shared" si="9"/>
         <v>0.55467999999999995</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
+      <c r="A7" s="11">
         <v>2.6</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="13">
         <f t="shared" si="0"/>
         <v>3.9</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="18">
         <f t="shared" si="1"/>
         <v>2.2617378780604894E-2</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="18">
         <f t="shared" si="2"/>
         <v>3.6732920495405511E-2</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="18">
         <f t="shared" si="3"/>
         <v>0.38108280929506477</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="18">
         <f t="shared" si="4"/>
         <v>0.61891719070493523</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="18">
         <f t="shared" si="5"/>
         <v>0.81708025153836894</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="18">
         <f t="shared" si="6"/>
         <v>0.66578471701933495</v>
       </c>
-      <c r="I7" s="21">
+      <c r="I7" s="18">
         <f t="shared" si="7"/>
         <v>0.61572503562393943</v>
       </c>
-      <c r="J7" s="21">
+      <c r="J7" s="18">
         <f t="shared" si="8"/>
         <v>0.7556448114916241</v>
       </c>
-      <c r="K7" s="23">
+      <c r="K7" s="20">
         <v>0.4304</v>
       </c>
-      <c r="L7" s="18">
+      <c r="L7" s="15">
         <f t="shared" si="9"/>
         <v>0.60255999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
+      <c r="A8" s="11">
         <v>3</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="13">
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="18">
         <f t="shared" si="1"/>
         <v>2.609697551608257E-2</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="18">
         <f t="shared" si="2"/>
         <v>3.2965441470235717E-2</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="18">
         <f t="shared" si="3"/>
         <v>0.44185417474750305</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="18">
         <f t="shared" si="4"/>
         <v>0.55814582525249701</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="18">
         <f t="shared" si="5"/>
         <v>0.78790999612119861</v>
       </c>
-      <c r="H8" s="21">
+      <c r="H8" s="18">
         <f t="shared" si="6"/>
         <v>0.69860125436365172</v>
       </c>
-      <c r="I8" s="21">
+      <c r="I8" s="18">
         <f t="shared" si="7"/>
         <v>0.79164647437363644</v>
       </c>
-      <c r="J8" s="21">
+      <c r="J8" s="18">
         <f t="shared" si="8"/>
         <v>0.89285005810826379</v>
       </c>
-      <c r="K8" s="23">
+      <c r="K8" s="20">
         <v>0.47149999999999997</v>
       </c>
-      <c r="L8" s="18">
+      <c r="L8" s="15">
         <f t="shared" si="9"/>
         <v>0.66009999999999991</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="14">
+      <c r="A9" s="11">
         <v>3.3</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="13">
         <f t="shared" si="0"/>
         <v>3.2</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="18">
         <f t="shared" si="1"/>
         <v>2.8706673067690827E-2</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="18">
         <f t="shared" si="2"/>
         <v>3.0139832201358369E-2</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="18">
         <f t="shared" si="3"/>
         <v>0.48782290361071518</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="18">
         <f t="shared" si="4"/>
         <v>0.51217709638928488</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="18">
         <f t="shared" si="5"/>
         <v>0.7658450062668567</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H9" s="18">
         <f t="shared" si="6"/>
         <v>0.72342436794978626</v>
       </c>
-      <c r="I9" s="21">
+      <c r="I9" s="18">
         <f t="shared" si="7"/>
         <v>0.95244966448078128</v>
       </c>
-      <c r="J9" s="21">
+      <c r="J9" s="18">
         <f t="shared" si="8"/>
         <v>1.0083000401692026</v>
       </c>
-      <c r="K9" s="23">
+      <c r="K9" s="20">
         <v>0.50219999999999998</v>
       </c>
-      <c r="L9" s="18">
+      <c r="L9" s="15">
         <f t="shared" si="9"/>
         <v>0.70307999999999993</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="14">
+      <c r="A10" s="11">
         <v>3.6</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="13">
         <f t="shared" si="0"/>
         <v>2.9</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="18">
         <f t="shared" si="1"/>
         <v>3.1316370619299087E-2</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="18">
         <f t="shared" si="2"/>
         <v>2.7314222932481022E-2</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="18">
         <f t="shared" si="3"/>
         <v>0.53413019930698413</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="18">
         <f t="shared" si="4"/>
         <v>0.46586980069301587</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="18">
         <f t="shared" si="5"/>
         <v>0.74361750433264762</v>
       </c>
-      <c r="H10" s="21">
+      <c r="H10" s="18">
         <f t="shared" si="6"/>
         <v>0.74843030762577145</v>
       </c>
-      <c r="I10" s="21">
+      <c r="I10" s="18">
         <f t="shared" si="7"/>
         <v>1.1465224801273357</v>
       </c>
-      <c r="J10" s="21">
+      <c r="J10" s="18">
         <f t="shared" si="8"/>
         <v>1.1391497333107325</v>
       </c>
-      <c r="K10" s="23">
+      <c r="K10" s="20">
         <v>0.53249999999999997</v>
       </c>
-      <c r="L10" s="18">
+      <c r="L10" s="15">
         <f t="shared" si="9"/>
         <v>0.74549999999999994</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="14">
+      <c r="A11" s="11">
         <v>4</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="13">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="18">
         <f t="shared" si="1"/>
         <v>3.4795967354776761E-2</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="18">
         <f t="shared" si="2"/>
         <v>2.3546743907311225E-2</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="18">
         <f t="shared" si="3"/>
         <v>0.59640641653532023</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="18">
         <f t="shared" si="4"/>
         <v>0.40359358346467988</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G11" s="18">
         <f t="shared" si="5"/>
         <v>0.71372492006304644</v>
       </c>
-      <c r="H11" s="21">
+      <c r="H11" s="18">
         <f t="shared" si="6"/>
         <v>0.78205946492907297</v>
       </c>
-      <c r="I11" s="21">
+      <c r="I11" s="18">
         <f t="shared" si="7"/>
         <v>1.4777400854974549</v>
       </c>
-      <c r="J11" s="21">
+      <c r="J11" s="18">
         <f t="shared" si="8"/>
         <v>1.3486185791399943</v>
       </c>
-      <c r="K11" s="23">
+      <c r="K11" s="20">
         <v>0.57389999999999997</v>
       </c>
-      <c r="L11" s="18">
+      <c r="L11" s="15">
         <f t="shared" si="9"/>
         <v>0.80345999999999995</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="14">
+      <c r="A12" s="11">
         <v>4.3</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="13">
         <f t="shared" si="0"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="18">
         <f t="shared" si="1"/>
         <v>3.7405664906385014E-2</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="18">
         <f t="shared" si="2"/>
         <v>2.0721134638433881E-2</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="18">
         <f t="shared" si="3"/>
         <v>0.64351839769783359</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="18">
         <f t="shared" si="4"/>
         <v>0.35648160230216652</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G12" s="18">
         <f t="shared" si="5"/>
         <v>0.69111116910504</v>
       </c>
-      <c r="H12" s="21">
+      <c r="H12" s="18">
         <f t="shared" si="6"/>
         <v>0.80749993475683013</v>
       </c>
-      <c r="I12" s="21">
+      <c r="I12" s="18">
         <f t="shared" si="7"/>
         <v>1.8051938544429129</v>
       </c>
-      <c r="J12" s="21">
+      <c r="J12" s="18">
         <f t="shared" si="8"/>
         <v>1.5450027690478676</v>
       </c>
-      <c r="K12" s="23">
+      <c r="K12" s="20">
         <v>0.60719999999999996</v>
       </c>
-      <c r="L12" s="18">
+      <c r="L12" s="15">
         <f t="shared" si="9"/>
         <v>0.85007999999999995</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="15">
+      <c r="A13" s="12">
         <v>4.9000000000000004</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="14">
         <f t="shared" si="0"/>
         <v>1.5999999999999996</v>
       </c>
-      <c r="C13" s="24">
+      <c r="C13" s="21">
         <f t="shared" si="1"/>
         <v>4.2625060009601534E-2</v>
       </c>
-      <c r="D13" s="24">
+      <c r="D13" s="21">
         <f t="shared" si="2"/>
         <v>1.5069916100679181E-2</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="21">
         <f t="shared" si="3"/>
         <v>0.73880020208563946</v>
       </c>
-      <c r="F13" s="24">
+      <c r="F13" s="21">
         <f t="shared" si="4"/>
         <v>0.26119979791436054</v>
       </c>
-      <c r="G13" s="24">
+      <c r="G13" s="21">
         <f t="shared" si="5"/>
         <v>0.64537590299889303</v>
       </c>
-      <c r="H13" s="24">
+      <c r="H13" s="21">
         <f t="shared" si="6"/>
         <v>0.85895210912624531</v>
       </c>
-      <c r="I13" s="24">
+      <c r="I13" s="21">
         <f t="shared" si="7"/>
         <v>2.8284868823974723</v>
       </c>
-      <c r="J13" s="24">
+      <c r="J13" s="21">
         <f t="shared" si="8"/>
         <v>2.1251909814910261</v>
       </c>
-      <c r="K13" s="25">
+      <c r="K13" s="22">
         <v>0.67959999999999998</v>
       </c>
-      <c r="L13" s="19">
+      <c r="L13" s="16">
         <f t="shared" si="9"/>
         <v>0.95143999999999995</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="1" t="s">
+      <c r="A15" s="10"/>
+      <c r="B15" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
-      <c r="B16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" s="30"/>
       <c r="C19" s="30"/>
-      <c r="D19" s="29" t="s">
-        <v>12</v>
+      <c r="D19" s="26" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" s="30"/>
       <c r="C20" s="30"/>
-      <c r="D20" s="29" t="s">
-        <v>22</v>
+      <c r="D20" s="26" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23" s="30"/>
       <c r="C23" s="30"/>
@@ -1510,49 +1513,49 @@
       <c r="F23" s="30"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="31" t="s">
+      <c r="C24" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="31" t="s">
+      <c r="D24" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="29">
+      <c r="A25" s="26">
         <v>140</v>
       </c>
-      <c r="B25" s="29">
+      <c r="B25" s="26">
         <v>450</v>
       </c>
-      <c r="C25" s="29">
+      <c r="C25" s="26">
         <v>269</v>
       </c>
-      <c r="D25" s="29">
+      <c r="D25" s="26">
         <v>49</v>
       </c>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
+      <c r="A31" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Spectrophotometer/Content/Data.xlsx
+++ b/Spectrophotometer/Content/Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>Стирол V1 (мл)</t>
   </si>
@@ -131,9 +131,6 @@
   </si>
   <si>
     <t>Константы, необходимые для вычисления кривой</t>
-  </si>
-  <si>
-    <t>Для добавления новой смеси мономеров следует строго следовать данному шаблону, соблюдания все строки и столбцы для данных</t>
   </si>
   <si>
     <t>Signal Factor</t>
@@ -189,7 +186,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -208,12 +205,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -418,7 +409,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -464,9 +455,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -474,8 +462,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -780,7 +771,7 @@
   <dimension ref="A1:U31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:F16"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -825,16 +816,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="O1" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="33"/>
-      <c r="R1" s="32" t="s">
+      <c r="P1" s="32"/>
+      <c r="R1" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="33"/>
+      <c r="S1" s="32"/>
       <c r="U1" s="1" t="s">
         <v>13</v>
       </c>
@@ -1461,112 +1452,119 @@
         <f t="shared" si="9"/>
         <v>0.95143999999999995</v>
       </c>
+      <c r="N13" s="10"/>
+      <c r="O13" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="P13" s="33"/>
+      <c r="Q13" s="33"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="N14" s="17"/>
+      <c r="O14" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="33"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="B16" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="30" t="s">
+      <c r="A16" s="34"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N17" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="30" t="s">
+      <c r="O17" s="30"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N18" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="26" t="s">
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="26" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="30" t="s">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N22" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="27" t="s">
+      <c r="O22" s="30"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="30"/>
+      <c r="R22" s="30"/>
+      <c r="S22" s="30"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N23" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="27" t="s">
+      <c r="O23" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="27" t="s">
+      <c r="P23" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="28" t="s">
+      <c r="Q23" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="26">
+      <c r="R23" s="29"/>
+      <c r="S23" s="29"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N24" s="26">
         <v>140</v>
       </c>
-      <c r="B25" s="26">
+      <c r="O24" s="26">
         <v>450</v>
       </c>
-      <c r="C25" s="26">
+      <c r="P24" s="26">
         <v>269</v>
       </c>
-      <c r="D25" s="26">
+      <c r="Q24" s="26">
         <v>49</v>
       </c>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="31"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="29"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="36"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A31:I31"/>
+  <mergeCells count="7">
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="N22:S22"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="R1:S1"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="O14:Q14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Spectrophotometer/Content/Data.xlsx
+++ b/Spectrophotometer/Content/Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>Стирол V1 (мл)</t>
   </si>
@@ -141,6 +141,30 @@
   <si>
     <t xml:space="preserve"> - данные, которые не считываются программой</t>
   </si>
+  <si>
+    <t>Константы, необходимые для вычисления градуировочной кривой</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Данные для градуировочной кривой</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>y=a + bx</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - уравнение</t>
+  </si>
 </sst>
 </file>
 
@@ -150,7 +174,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,8 +209,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -205,8 +238,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -405,13 +444,158 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -419,13 +603,7 @@
     <xf numFmtId="16" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -452,21 +630,57 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -768,10 +982,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U31"/>
+  <dimension ref="A1:X38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N32" sqref="N32:O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -782,782 +996,924 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="31" t="s">
+      <c r="O1" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="32"/>
-      <c r="R1" s="31" t="s">
+      <c r="P1" s="36"/>
+      <c r="R1" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="32"/>
-      <c r="U1" s="1" t="s">
+      <c r="S1" s="36"/>
+      <c r="U1" s="37" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="11">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="10">
         <f>$P$2-A2</f>
         <v>5.5</v>
       </c>
-      <c r="C2" s="18">
+      <c r="C2" s="15">
         <f>$S$3/$S$4*A2</f>
         <v>8.6989918386941902E-3</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="15">
         <f>$P$3/$P$4*B2</f>
         <v>5.1802836596084693E-2</v>
       </c>
-      <c r="E2" s="18">
+      <c r="E2" s="15">
         <f>C2/(C2+D2)</f>
         <v>0.14378064372173022</v>
       </c>
-      <c r="F2" s="18">
+      <c r="F2" s="15">
         <f>D2/(C2+D2)</f>
         <v>0.85621935627826973</v>
       </c>
-      <c r="G2" s="18">
+      <c r="G2" s="15">
         <f>$S$5*E2+F2</f>
         <v>0.93098529101356942</v>
       </c>
-      <c r="H2" s="18">
+      <c r="H2" s="15">
         <f>$P$5*F2+E2</f>
         <v>0.53764154760973426</v>
       </c>
-      <c r="I2" s="18">
+      <c r="I2" s="15">
         <f>E2/F2</f>
         <v>0.16792500971561986</v>
       </c>
-      <c r="J2" s="18">
+      <c r="J2" s="15">
         <f>I2*G2/H2</f>
         <v>0.2907805669662169</v>
       </c>
-      <c r="K2" s="19">
+      <c r="K2" s="16">
         <v>0.2253</v>
       </c>
-      <c r="L2" s="15">
+      <c r="L2" s="12">
         <f>K2*$U$2</f>
         <v>0.31541999999999998</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="24">
+      <c r="P2" s="21">
         <v>6.5</v>
       </c>
-      <c r="R2" s="2"/>
-      <c r="S2" s="6"/>
-      <c r="U2" s="23">
+      <c r="R2" s="1"/>
+      <c r="S2" s="5"/>
+      <c r="U2" s="20">
         <v>1.4</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+      <c r="A3" s="8">
         <v>1.3</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="10">
         <f t="shared" ref="B3:B13" si="0">$P$2-A3</f>
         <v>5.2</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="15">
         <f t="shared" ref="C3:C13" si="1">$S$3/$S$4*A3</f>
         <v>1.1308689390302447E-2</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="15">
         <f t="shared" ref="D3:D13" si="2">$P$3/$P$4*B3</f>
         <v>4.897722732720735E-2</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="15">
         <f t="shared" ref="E3:E13" si="3">C3/(C3+D3)</f>
         <v>0.18758426521559196</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="15">
         <f t="shared" ref="F3:F13" si="4">D3/(C3+D3)</f>
         <v>0.81241573478440798</v>
       </c>
-      <c r="G3" s="18">
+      <c r="G3" s="15">
         <f t="shared" ref="G3:G13" si="5">$S$5*E3+F3</f>
         <v>0.90995955269651585</v>
       </c>
-      <c r="H3" s="18">
+      <c r="H3" s="15">
         <f t="shared" ref="H3:H13" si="6">$P$5*F3+E3</f>
         <v>0.56129550321641963</v>
       </c>
-      <c r="I3" s="18">
+      <c r="I3" s="15">
         <f t="shared" ref="I3:I13" si="7">E3/F3</f>
         <v>0.23089688835897729</v>
       </c>
-      <c r="J3" s="18">
+      <c r="J3" s="15">
         <f t="shared" ref="J3:J13" si="8">I3*G3/H3</f>
         <v>0.37432480404023671</v>
       </c>
-      <c r="K3" s="20">
+      <c r="K3" s="17">
         <v>0.27229999999999999</v>
       </c>
-      <c r="L3" s="15">
+      <c r="L3" s="12">
         <f t="shared" ref="L3:L13" si="9">K3*$U$2</f>
         <v>0.38121999999999995</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="24">
+      <c r="P3" s="21">
         <v>0.94299999999999995</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="R3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="25">
+      <c r="S3" s="22">
         <v>0.90600000000000003</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="A4" s="8">
         <v>1.6</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="10">
         <f t="shared" si="0"/>
         <v>4.9000000000000004</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="15">
         <f t="shared" si="1"/>
         <v>1.3918386941910705E-2</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="15">
         <f t="shared" si="2"/>
         <v>4.6151618058330006E-2</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="15">
         <f t="shared" si="3"/>
         <v>0.23170277648312051</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="15">
         <f t="shared" si="4"/>
         <v>0.76829722351687946</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="15">
         <f t="shared" si="5"/>
         <v>0.88878266728810207</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H4" s="15">
         <f t="shared" si="6"/>
         <v>0.58511949930088503</v>
       </c>
-      <c r="I4" s="18">
+      <c r="I4" s="15">
         <f t="shared" si="7"/>
         <v>0.30157960928519484</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J4" s="15">
         <f t="shared" si="8"/>
         <v>0.45809228689260623</v>
       </c>
-      <c r="K4" s="20">
+      <c r="K4" s="17">
         <v>0.31380000000000002</v>
       </c>
-      <c r="L4" s="15">
+      <c r="L4" s="12">
         <f t="shared" si="9"/>
         <v>0.43931999999999999</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="O4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P4" s="24">
+      <c r="P4" s="21">
         <v>100.12</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="R4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S4" s="25">
+      <c r="S4" s="22">
         <v>104.15</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11">
+      <c r="A5" s="8">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="10">
         <f t="shared" si="0"/>
         <v>4.3</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="15">
         <f t="shared" si="1"/>
         <v>1.913778204512722E-2</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="15">
         <f t="shared" si="2"/>
         <v>4.0500399520575305E-2</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="15">
         <f t="shared" si="3"/>
         <v>0.32089814851318699</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="15">
         <f t="shared" si="4"/>
         <v>0.67910185148681301</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="15">
         <f t="shared" si="5"/>
         <v>0.84596888871367026</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="15">
         <f t="shared" si="6"/>
         <v>0.63328500019712097</v>
       </c>
-      <c r="I5" s="18">
+      <c r="I5" s="15">
         <f t="shared" si="7"/>
         <v>0.47253316687418612</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="15">
         <f t="shared" si="8"/>
         <v>0.63122979059424733</v>
       </c>
-      <c r="K5" s="20">
+      <c r="K5" s="17">
         <v>0.38669999999999999</v>
       </c>
-      <c r="L5" s="15">
+      <c r="L5" s="12">
         <f t="shared" si="9"/>
         <v>0.54137999999999997</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="O5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="P5" s="24">
+      <c r="P5" s="21">
         <v>0.46</v>
       </c>
-      <c r="R5" s="5" t="s">
+      <c r="R5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S5" s="25">
+      <c r="S5" s="22">
         <v>0.52</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
+      <c r="A6" s="8">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="10">
         <f t="shared" si="0"/>
         <v>4.2</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="15">
         <f t="shared" si="1"/>
         <v>2.0007681228996637E-2</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="15">
         <f t="shared" si="2"/>
         <v>3.9558529764282861E-2</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="15">
         <f t="shared" si="3"/>
         <v>0.33588977535022307</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="15">
         <f t="shared" si="4"/>
         <v>0.66411022464977698</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="15">
         <f t="shared" si="5"/>
         <v>0.83877290783189296</v>
       </c>
-      <c r="H6" s="18">
+      <c r="H6" s="15">
         <f t="shared" si="6"/>
         <v>0.64138047868912051</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I6" s="15">
         <f t="shared" si="7"/>
         <v>0.50577413640537883</v>
       </c>
-      <c r="J6" s="18">
+      <c r="J6" s="15">
         <f t="shared" si="8"/>
         <v>0.66143210963632992</v>
       </c>
-      <c r="K6" s="20">
+      <c r="K6" s="17">
         <v>0.3962</v>
       </c>
-      <c r="L6" s="15">
+      <c r="L6" s="12">
         <f t="shared" si="9"/>
         <v>0.55467999999999995</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+      <c r="A7" s="8">
         <v>2.6</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="10">
         <f t="shared" si="0"/>
         <v>3.9</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="15">
         <f t="shared" si="1"/>
         <v>2.2617378780604894E-2</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="15">
         <f t="shared" si="2"/>
         <v>3.6732920495405511E-2</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="15">
         <f t="shared" si="3"/>
         <v>0.38108280929506477</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="15">
         <f t="shared" si="4"/>
         <v>0.61891719070493523</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="15">
         <f t="shared" si="5"/>
         <v>0.81708025153836894</v>
       </c>
-      <c r="H7" s="18">
+      <c r="H7" s="15">
         <f t="shared" si="6"/>
         <v>0.66578471701933495</v>
       </c>
-      <c r="I7" s="18">
+      <c r="I7" s="15">
         <f t="shared" si="7"/>
         <v>0.61572503562393943</v>
       </c>
-      <c r="J7" s="18">
+      <c r="J7" s="15">
         <f t="shared" si="8"/>
         <v>0.7556448114916241</v>
       </c>
-      <c r="K7" s="20">
+      <c r="K7" s="17">
         <v>0.4304</v>
       </c>
-      <c r="L7" s="15">
+      <c r="L7" s="12">
         <f t="shared" si="9"/>
         <v>0.60255999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+      <c r="A8" s="8">
         <v>3</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="10">
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="15">
         <f t="shared" si="1"/>
         <v>2.609697551608257E-2</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="15">
         <f t="shared" si="2"/>
         <v>3.2965441470235717E-2</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="15">
         <f t="shared" si="3"/>
         <v>0.44185417474750305</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="15">
         <f t="shared" si="4"/>
         <v>0.55814582525249701</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="15">
         <f t="shared" si="5"/>
         <v>0.78790999612119861</v>
       </c>
-      <c r="H8" s="18">
+      <c r="H8" s="15">
         <f t="shared" si="6"/>
         <v>0.69860125436365172</v>
       </c>
-      <c r="I8" s="18">
+      <c r="I8" s="15">
         <f t="shared" si="7"/>
         <v>0.79164647437363644</v>
       </c>
-      <c r="J8" s="18">
+      <c r="J8" s="15">
         <f t="shared" si="8"/>
         <v>0.89285005810826379</v>
       </c>
-      <c r="K8" s="20">
+      <c r="K8" s="17">
         <v>0.47149999999999997</v>
       </c>
-      <c r="L8" s="15">
+      <c r="L8" s="12">
         <f t="shared" si="9"/>
         <v>0.66009999999999991</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+      <c r="A9" s="8">
         <v>3.3</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="10">
         <f t="shared" si="0"/>
         <v>3.2</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="15">
         <f t="shared" si="1"/>
         <v>2.8706673067690827E-2</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="15">
         <f t="shared" si="2"/>
         <v>3.0139832201358369E-2</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="15">
         <f t="shared" si="3"/>
         <v>0.48782290361071518</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="15">
         <f t="shared" si="4"/>
         <v>0.51217709638928488</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="15">
         <f t="shared" si="5"/>
         <v>0.7658450062668567</v>
       </c>
-      <c r="H9" s="18">
+      <c r="H9" s="15">
         <f t="shared" si="6"/>
         <v>0.72342436794978626</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I9" s="15">
         <f t="shared" si="7"/>
         <v>0.95244966448078128</v>
       </c>
-      <c r="J9" s="18">
+      <c r="J9" s="15">
         <f t="shared" si="8"/>
         <v>1.0083000401692026</v>
       </c>
-      <c r="K9" s="20">
+      <c r="K9" s="17">
         <v>0.50219999999999998</v>
       </c>
-      <c r="L9" s="15">
+      <c r="L9" s="12">
         <f t="shared" si="9"/>
         <v>0.70307999999999993</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
+      <c r="A10" s="8">
         <v>3.6</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="10">
         <f t="shared" si="0"/>
         <v>2.9</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="15">
         <f t="shared" si="1"/>
         <v>3.1316370619299087E-2</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="15">
         <f t="shared" si="2"/>
         <v>2.7314222932481022E-2</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="15">
         <f t="shared" si="3"/>
         <v>0.53413019930698413</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="15">
         <f t="shared" si="4"/>
         <v>0.46586980069301587</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="15">
         <f t="shared" si="5"/>
         <v>0.74361750433264762</v>
       </c>
-      <c r="H10" s="18">
+      <c r="H10" s="15">
         <f t="shared" si="6"/>
         <v>0.74843030762577145</v>
       </c>
-      <c r="I10" s="18">
+      <c r="I10" s="15">
         <f t="shared" si="7"/>
         <v>1.1465224801273357</v>
       </c>
-      <c r="J10" s="18">
+      <c r="J10" s="15">
         <f t="shared" si="8"/>
         <v>1.1391497333107325</v>
       </c>
-      <c r="K10" s="20">
+      <c r="K10" s="17">
         <v>0.53249999999999997</v>
       </c>
-      <c r="L10" s="15">
+      <c r="L10" s="12">
         <f t="shared" si="9"/>
         <v>0.74549999999999994</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
+      <c r="A11" s="8">
         <v>4</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="10">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="15">
         <f t="shared" si="1"/>
         <v>3.4795967354776761E-2</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="15">
         <f t="shared" si="2"/>
         <v>2.3546743907311225E-2</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="15">
         <f t="shared" si="3"/>
         <v>0.59640641653532023</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="15">
         <f t="shared" si="4"/>
         <v>0.40359358346467988</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G11" s="15">
         <f t="shared" si="5"/>
         <v>0.71372492006304644</v>
       </c>
-      <c r="H11" s="18">
+      <c r="H11" s="15">
         <f t="shared" si="6"/>
         <v>0.78205946492907297</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I11" s="15">
         <f t="shared" si="7"/>
         <v>1.4777400854974549</v>
       </c>
-      <c r="J11" s="18">
+      <c r="J11" s="15">
         <f t="shared" si="8"/>
         <v>1.3486185791399943</v>
       </c>
-      <c r="K11" s="20">
+      <c r="K11" s="17">
         <v>0.57389999999999997</v>
       </c>
-      <c r="L11" s="15">
+      <c r="L11" s="12">
         <f t="shared" si="9"/>
         <v>0.80345999999999995</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
+      <c r="A12" s="8">
         <v>4.3</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="10">
         <f t="shared" si="0"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="15">
         <f t="shared" si="1"/>
         <v>3.7405664906385014E-2</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="15">
         <f t="shared" si="2"/>
         <v>2.0721134638433881E-2</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="15">
         <f t="shared" si="3"/>
         <v>0.64351839769783359</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="15">
         <f t="shared" si="4"/>
         <v>0.35648160230216652</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="15">
         <f t="shared" si="5"/>
         <v>0.69111116910504</v>
       </c>
-      <c r="H12" s="18">
+      <c r="H12" s="15">
         <f t="shared" si="6"/>
         <v>0.80749993475683013</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I12" s="15">
         <f t="shared" si="7"/>
         <v>1.8051938544429129</v>
       </c>
-      <c r="J12" s="18">
+      <c r="J12" s="15">
         <f t="shared" si="8"/>
         <v>1.5450027690478676</v>
       </c>
-      <c r="K12" s="20">
+      <c r="K12" s="17">
         <v>0.60719999999999996</v>
       </c>
-      <c r="L12" s="15">
+      <c r="L12" s="12">
         <f t="shared" si="9"/>
         <v>0.85007999999999995</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12">
+      <c r="A13" s="9">
         <v>4.9000000000000004</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="11">
         <f t="shared" si="0"/>
         <v>1.5999999999999996</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="18">
         <f t="shared" si="1"/>
         <v>4.2625060009601534E-2</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="18">
         <f t="shared" si="2"/>
         <v>1.5069916100679181E-2</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="18">
         <f t="shared" si="3"/>
         <v>0.73880020208563946</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="18">
         <f t="shared" si="4"/>
         <v>0.26119979791436054</v>
       </c>
-      <c r="G13" s="21">
+      <c r="G13" s="18">
         <f t="shared" si="5"/>
         <v>0.64537590299889303</v>
       </c>
-      <c r="H13" s="21">
+      <c r="H13" s="18">
         <f t="shared" si="6"/>
         <v>0.85895210912624531</v>
       </c>
-      <c r="I13" s="21">
+      <c r="I13" s="18">
         <f t="shared" si="7"/>
         <v>2.8284868823974723</v>
       </c>
-      <c r="J13" s="21">
+      <c r="J13" s="18">
         <f t="shared" si="8"/>
         <v>2.1251909814910261</v>
       </c>
-      <c r="K13" s="22">
+      <c r="K13" s="19">
         <v>0.67959999999999998</v>
       </c>
-      <c r="L13" s="16">
+      <c r="L13" s="13">
         <f t="shared" si="9"/>
         <v>0.95143999999999995</v>
       </c>
-      <c r="N13" s="10"/>
-      <c r="O13" s="33" t="s">
+      <c r="N13" s="7"/>
+      <c r="O13" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="33"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="N14" s="17"/>
-      <c r="O14" s="33" t="s">
+      <c r="N14" s="14"/>
+      <c r="O14" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="33"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="31"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="27"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="N17" s="30" t="s">
         <v>19</v>
       </c>
       <c r="O17" s="30"/>
       <c r="P17" s="30"/>
-      <c r="Q17" s="26" t="s">
+      <c r="Q17" s="23" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="N18" s="30" t="s">
         <v>20</v>
       </c>
       <c r="O18" s="30"/>
       <c r="P18" s="30"/>
-      <c r="Q18" s="26" t="s">
+      <c r="Q18" s="23" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="N22" s="30" t="s">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="N22" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="O22" s="30"/>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="30"/>
-      <c r="R22" s="30"/>
-      <c r="S22" s="30"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="N23" s="27" t="s">
+      <c r="O22" s="38"/>
+      <c r="P22" s="38"/>
+      <c r="Q22" s="38"/>
+      <c r="R22" s="38"/>
+      <c r="S22" s="38"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="N23" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="O23" s="27" t="s">
+      <c r="O23" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="P23" s="27" t="s">
+      <c r="P23" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="Q23" s="28" t="s">
+      <c r="Q23" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="R23" s="29"/>
-      <c r="S23" s="29"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="N24" s="26">
+      <c r="R23" s="26"/>
+      <c r="S23" s="26"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="N24" s="23">
         <v>140</v>
       </c>
-      <c r="O24" s="26">
+      <c r="O24" s="23">
         <v>450</v>
       </c>
-      <c r="P24" s="26">
+      <c r="P24" s="23">
         <v>269</v>
       </c>
-      <c r="Q24" s="26">
+      <c r="Q24" s="23">
         <v>49</v>
       </c>
-      <c r="R24" s="29"/>
-      <c r="S24" s="29"/>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="36"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
+      <c r="R24" s="26"/>
+      <c r="S24" s="26"/>
+    </row>
+    <row r="28" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N28" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="O28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N29" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="O29" s="38"/>
+      <c r="P29" s="38"/>
+      <c r="Q29" s="38"/>
+      <c r="R29" s="38"/>
+      <c r="S29" s="38"/>
+      <c r="U29" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="V29" s="47"/>
+      <c r="W29" s="47"/>
+      <c r="X29" s="48"/>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="N30" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="O30" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="26"/>
+      <c r="R30" s="26"/>
+      <c r="S30" s="26"/>
+      <c r="U30" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="V30" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="W30" s="44"/>
+      <c r="X30" s="45"/>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A31" s="29"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="N31" s="23">
+        <v>0</v>
+      </c>
+      <c r="O31" s="23">
+        <v>1.0820000000000001</v>
+      </c>
+      <c r="P31" s="26"/>
+      <c r="Q31" s="26"/>
+      <c r="R31" s="26"/>
+      <c r="S31" s="26"/>
+      <c r="U31" s="49">
+        <v>0.1</v>
+      </c>
+      <c r="V31" s="23">
+        <f>$O$31*U31</f>
+        <v>0.10820000000000002</v>
+      </c>
+      <c r="W31" s="26"/>
+      <c r="X31" s="39"/>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="U32" s="49">
+        <v>0.2</v>
+      </c>
+      <c r="V32" s="23">
+        <f t="shared" ref="V32:V38" si="10">$O$31*U32</f>
+        <v>0.21640000000000004</v>
+      </c>
+      <c r="W32" s="26"/>
+      <c r="X32" s="39"/>
+    </row>
+    <row r="33" spans="21:24" x14ac:dyDescent="0.25">
+      <c r="U33" s="49">
+        <v>0.3</v>
+      </c>
+      <c r="V33" s="23">
+        <f t="shared" si="10"/>
+        <v>0.3246</v>
+      </c>
+      <c r="W33" s="26"/>
+      <c r="X33" s="39"/>
+    </row>
+    <row r="34" spans="21:24" x14ac:dyDescent="0.25">
+      <c r="U34" s="49">
+        <v>0.4</v>
+      </c>
+      <c r="V34" s="23">
+        <f t="shared" si="10"/>
+        <v>0.43280000000000007</v>
+      </c>
+      <c r="W34" s="26"/>
+      <c r="X34" s="39"/>
+    </row>
+    <row r="35" spans="21:24" x14ac:dyDescent="0.25">
+      <c r="U35" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="V35" s="23">
+        <f t="shared" si="10"/>
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="W35" s="26"/>
+      <c r="X35" s="39"/>
+    </row>
+    <row r="36" spans="21:24" x14ac:dyDescent="0.25">
+      <c r="U36" s="49">
+        <v>0.6</v>
+      </c>
+      <c r="V36" s="23">
+        <f t="shared" si="10"/>
+        <v>0.6492</v>
+      </c>
+      <c r="W36" s="26"/>
+      <c r="X36" s="39"/>
+    </row>
+    <row r="37" spans="21:24" x14ac:dyDescent="0.25">
+      <c r="U37" s="49">
+        <v>0.7</v>
+      </c>
+      <c r="V37" s="23">
+        <f t="shared" si="10"/>
+        <v>0.75739999999999996</v>
+      </c>
+      <c r="W37" s="26"/>
+      <c r="X37" s="39"/>
+    </row>
+    <row r="38" spans="21:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U38" s="50">
+        <v>0.8</v>
+      </c>
+      <c r="V38" s="51">
+        <f t="shared" si="10"/>
+        <v>0.86560000000000015</v>
+      </c>
+      <c r="W38" s="40"/>
+      <c r="X38" s="41"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
+    <mergeCell ref="N29:S29"/>
+    <mergeCell ref="U29:X29"/>
     <mergeCell ref="N18:P18"/>
     <mergeCell ref="N22:S22"/>
     <mergeCell ref="O1:P1"/>

--- a/Spectrophotometer/Content/Data.xlsx
+++ b/Spectrophotometer/Content/Data.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Стирол и ММА" sheetId="1" r:id="rId1"/>
+    <sheet name="Акрилонитрил и Акриламид" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="55">
   <si>
     <t>Стирол V1 (мл)</t>
   </si>
@@ -165,6 +166,96 @@
   <si>
     <t xml:space="preserve"> - уравнение</t>
   </si>
+  <si>
+    <t>Акрилонитрил V1 (мл)</t>
+  </si>
+  <si>
+    <t>Акриламид V2 (мл)</t>
+  </si>
+  <si>
+    <t>Акрилонитрил N1 (моль)</t>
+  </si>
+  <si>
+    <t>Акриламид N2 (моль)</t>
+  </si>
+  <si>
+    <t>Акрилонитрил (мол.доля)</t>
+  </si>
+  <si>
+    <t>Акриламид f2 (мол.доля)</t>
+  </si>
+  <si>
+    <t>акрилонитрил</t>
+  </si>
+  <si>
+    <t>акриламид</t>
+  </si>
+  <si>
+    <t>Исходное количество акриламида (мл)</t>
+  </si>
+  <si>
+    <t>- данные, которые считываются программой</t>
+  </si>
+  <si>
+    <t>- данные, которые не считываются программой</t>
+  </si>
+  <si>
+    <t>Акрилонитрил</t>
+  </si>
+  <si>
+    <t>Акриламид</t>
+  </si>
+  <si>
+    <r>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>min</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>max</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>a</t>
+    </r>
+  </si>
+  <si>
+    <t>- уравнение</t>
+  </si>
 </sst>
 </file>
 
@@ -174,7 +265,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,8 +309,55 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Cyr"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Symbol"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -244,8 +382,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB7CCE4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE5B7B6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD7E3BC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="26">
+  <borders count="53">
     <border>
       <left/>
       <right/>
@@ -590,11 +746,366 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -633,12 +1144,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -648,16 +1153,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
@@ -669,18 +1165,136 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -984,7 +1598,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N32" sqref="N32:O33"/>
     </sheetView>
   </sheetViews>
@@ -999,48 +1613,48 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="H1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="I1" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="J1" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="33" t="s">
+      <c r="K1" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="34" t="s">
+      <c r="L1" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="35" t="s">
+      <c r="O1" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="36"/>
-      <c r="R1" s="35" t="s">
+      <c r="P1" s="50"/>
+      <c r="R1" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="36"/>
-      <c r="U1" s="37" t="s">
+      <c r="S1" s="50"/>
+      <c r="U1" s="33" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1667,19 +2281,19 @@
         <v>0.95143999999999995</v>
       </c>
       <c r="N13" s="7"/>
-      <c r="O13" s="31" t="s">
+      <c r="O13" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="31"/>
+      <c r="P13" s="51"/>
+      <c r="Q13" s="51"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="N14" s="14"/>
-      <c r="O14" s="31" t="s">
+      <c r="O14" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="31"/>
+      <c r="P14" s="51"/>
+      <c r="Q14" s="51"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="27"/>
@@ -1698,34 +2312,34 @@
       <c r="F16" s="28"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="N17" s="30" t="s">
+      <c r="N17" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="O17" s="30"/>
-      <c r="P17" s="30"/>
+      <c r="O17" s="48"/>
+      <c r="P17" s="48"/>
       <c r="Q17" s="23" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="N18" s="30" t="s">
+      <c r="N18" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="O18" s="30"/>
-      <c r="P18" s="30"/>
+      <c r="O18" s="48"/>
+      <c r="P18" s="48"/>
       <c r="Q18" s="23" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="N22" s="38" t="s">
+      <c r="N22" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="O22" s="38"/>
-      <c r="P22" s="38"/>
-      <c r="Q22" s="38"/>
-      <c r="R22" s="38"/>
-      <c r="S22" s="38"/>
+      <c r="O22" s="44"/>
+      <c r="P22" s="44"/>
+      <c r="Q22" s="44"/>
+      <c r="R22" s="44"/>
+      <c r="S22" s="44"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="N23" s="24" t="s">
@@ -1768,40 +2382,40 @@
       </c>
     </row>
     <row r="29" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N29" s="38" t="s">
+      <c r="N29" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="O29" s="38"/>
-      <c r="P29" s="38"/>
-      <c r="Q29" s="38"/>
-      <c r="R29" s="38"/>
-      <c r="S29" s="38"/>
-      <c r="U29" s="46" t="s">
+      <c r="O29" s="44"/>
+      <c r="P29" s="44"/>
+      <c r="Q29" s="44"/>
+      <c r="R29" s="44"/>
+      <c r="S29" s="44"/>
+      <c r="U29" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="V29" s="47"/>
-      <c r="W29" s="47"/>
-      <c r="X29" s="48"/>
+      <c r="V29" s="46"/>
+      <c r="W29" s="46"/>
+      <c r="X29" s="47"/>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="N30" s="32" t="s">
+      <c r="N30" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="O30" s="32" t="s">
+      <c r="O30" s="30" t="s">
         <v>32</v>
       </c>
       <c r="P30" s="26"/>
       <c r="Q30" s="26"/>
       <c r="R30" s="26"/>
       <c r="S30" s="26"/>
-      <c r="U30" s="42" t="s">
+      <c r="U30" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="V30" s="43" t="s">
+      <c r="V30" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="W30" s="44"/>
-      <c r="X30" s="45"/>
+      <c r="W30" s="39"/>
+      <c r="X30" s="40"/>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="29"/>
@@ -1823,7 +2437,7 @@
       <c r="Q31" s="26"/>
       <c r="R31" s="26"/>
       <c r="S31" s="26"/>
-      <c r="U31" s="49">
+      <c r="U31" s="41">
         <v>0.1</v>
       </c>
       <c r="V31" s="23">
@@ -1831,10 +2445,10 @@
         <v>0.10820000000000002</v>
       </c>
       <c r="W31" s="26"/>
-      <c r="X31" s="39"/>
+      <c r="X31" s="34"/>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="U32" s="49">
+      <c r="U32" s="41">
         <v>0.2</v>
       </c>
       <c r="V32" s="23">
@@ -1842,10 +2456,10 @@
         <v>0.21640000000000004</v>
       </c>
       <c r="W32" s="26"/>
-      <c r="X32" s="39"/>
+      <c r="X32" s="34"/>
     </row>
     <row r="33" spans="21:24" x14ac:dyDescent="0.25">
-      <c r="U33" s="49">
+      <c r="U33" s="41">
         <v>0.3</v>
       </c>
       <c r="V33" s="23">
@@ -1853,10 +2467,10 @@
         <v>0.3246</v>
       </c>
       <c r="W33" s="26"/>
-      <c r="X33" s="39"/>
+      <c r="X33" s="34"/>
     </row>
     <row r="34" spans="21:24" x14ac:dyDescent="0.25">
-      <c r="U34" s="49">
+      <c r="U34" s="41">
         <v>0.4</v>
       </c>
       <c r="V34" s="23">
@@ -1864,10 +2478,10 @@
         <v>0.43280000000000007</v>
       </c>
       <c r="W34" s="26"/>
-      <c r="X34" s="39"/>
+      <c r="X34" s="34"/>
     </row>
     <row r="35" spans="21:24" x14ac:dyDescent="0.25">
-      <c r="U35" s="49">
+      <c r="U35" s="41">
         <v>0.5</v>
       </c>
       <c r="V35" s="23">
@@ -1875,10 +2489,10 @@
         <v>0.54100000000000004</v>
       </c>
       <c r="W35" s="26"/>
-      <c r="X35" s="39"/>
+      <c r="X35" s="34"/>
     </row>
     <row r="36" spans="21:24" x14ac:dyDescent="0.25">
-      <c r="U36" s="49">
+      <c r="U36" s="41">
         <v>0.6</v>
       </c>
       <c r="V36" s="23">
@@ -1886,10 +2500,10 @@
         <v>0.6492</v>
       </c>
       <c r="W36" s="26"/>
-      <c r="X36" s="39"/>
+      <c r="X36" s="34"/>
     </row>
     <row r="37" spans="21:24" x14ac:dyDescent="0.25">
-      <c r="U37" s="49">
+      <c r="U37" s="41">
         <v>0.7</v>
       </c>
       <c r="V37" s="23">
@@ -1897,18 +2511,18 @@
         <v>0.75739999999999996</v>
       </c>
       <c r="W37" s="26"/>
-      <c r="X37" s="39"/>
+      <c r="X37" s="34"/>
     </row>
     <row r="38" spans="21:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="U38" s="50">
+      <c r="U38" s="42">
         <v>0.8</v>
       </c>
-      <c r="V38" s="51">
+      <c r="V38" s="43">
         <f t="shared" si="10"/>
         <v>0.86560000000000015</v>
       </c>
-      <c r="W38" s="40"/>
-      <c r="X38" s="41"/>
+      <c r="W38" s="35"/>
+      <c r="X38" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1925,4 +2539,1451 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:24" ht="53.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="94" t="s">
+        <v>44</v>
+      </c>
+      <c r="P1" s="95"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="94" t="s">
+        <v>45</v>
+      </c>
+      <c r="S1" s="95"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="V1" s="56"/>
+      <c r="W1" s="96"/>
+      <c r="X1" s="96"/>
+    </row>
+    <row r="2" spans="1:24" ht="78" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="58">
+        <v>1</v>
+      </c>
+      <c r="B2" s="59">
+        <v>6</v>
+      </c>
+      <c r="C2" s="60">
+        <v>1.8599999999999998E-2</v>
+      </c>
+      <c r="D2" s="60">
+        <v>4.6399999999999997E-2</v>
+      </c>
+      <c r="E2" s="60">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="F2" s="60">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="G2" s="60">
+        <v>0.84560000000000002</v>
+      </c>
+      <c r="H2" s="60">
+        <v>0.6573</v>
+      </c>
+      <c r="I2" s="60">
+        <v>0.40060000000000001</v>
+      </c>
+      <c r="J2" s="60">
+        <v>0.51529999999999998</v>
+      </c>
+      <c r="K2" s="61">
+        <v>0.2253</v>
+      </c>
+      <c r="L2" s="62">
+        <v>0.42807000000000001</v>
+      </c>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="63" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" s="64">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="65">
+        <v>1.9</v>
+      </c>
+      <c r="V2" s="56"/>
+      <c r="W2" s="66"/>
+      <c r="X2" s="55"/>
+    </row>
+    <row r="3" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="58">
+        <v>1.3</v>
+      </c>
+      <c r="B3" s="59">
+        <v>5.7</v>
+      </c>
+      <c r="C3" s="60">
+        <v>2.4199999999999999E-2</v>
+      </c>
+      <c r="D3" s="60">
+        <v>4.41E-2</v>
+      </c>
+      <c r="E3" s="60">
+        <v>0.35410000000000003</v>
+      </c>
+      <c r="F3" s="60">
+        <v>0.64590000000000003</v>
+      </c>
+      <c r="G3" s="60">
+        <v>0.80879999999999996</v>
+      </c>
+      <c r="H3" s="60">
+        <v>0.68989999999999996</v>
+      </c>
+      <c r="I3" s="60">
+        <v>0.54810000000000003</v>
+      </c>
+      <c r="J3" s="60">
+        <v>0.64259999999999995</v>
+      </c>
+      <c r="K3" s="60">
+        <v>0.27229999999999999</v>
+      </c>
+      <c r="L3" s="62">
+        <v>0.51737</v>
+      </c>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="P3" s="64">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="Q3" s="56"/>
+      <c r="R3" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="S3" s="64">
+        <v>1.3220000000000001</v>
+      </c>
+      <c r="T3" s="56"/>
+      <c r="U3" s="56"/>
+      <c r="V3" s="56"/>
+      <c r="W3" s="68"/>
+      <c r="X3" s="55"/>
+    </row>
+    <row r="4" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="58">
+        <v>1.6</v>
+      </c>
+      <c r="B4" s="59">
+        <v>5.4</v>
+      </c>
+      <c r="C4" s="60">
+        <v>2.98E-2</v>
+      </c>
+      <c r="D4" s="60">
+        <v>4.1799999999999997E-2</v>
+      </c>
+      <c r="E4" s="60">
+        <v>0.41589999999999999</v>
+      </c>
+      <c r="F4" s="60">
+        <v>0.58409999999999995</v>
+      </c>
+      <c r="G4" s="60">
+        <v>0.77539999999999998</v>
+      </c>
+      <c r="H4" s="60">
+        <v>0.71960000000000002</v>
+      </c>
+      <c r="I4" s="60">
+        <v>0.71209999999999996</v>
+      </c>
+      <c r="J4" s="60">
+        <v>0.76729999999999998</v>
+      </c>
+      <c r="K4" s="60">
+        <v>0.31380000000000002</v>
+      </c>
+      <c r="L4" s="62">
+        <v>0.59621999999999997</v>
+      </c>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="64">
+        <v>104.15</v>
+      </c>
+      <c r="Q4" s="56"/>
+      <c r="R4" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="S4" s="64">
+        <v>71.08</v>
+      </c>
+      <c r="T4" s="56"/>
+      <c r="U4" s="56"/>
+      <c r="V4" s="56"/>
+      <c r="W4" s="68"/>
+      <c r="X4" s="55"/>
+    </row>
+    <row r="5" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="58">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B5" s="59">
+        <v>4.8</v>
+      </c>
+      <c r="C5" s="60">
+        <v>4.0899999999999999E-2</v>
+      </c>
+      <c r="D5" s="60">
+        <v>3.7100000000000001E-2</v>
+      </c>
+      <c r="E5" s="60">
+        <v>0.5242</v>
+      </c>
+      <c r="F5" s="60">
+        <v>0.4758</v>
+      </c>
+      <c r="G5" s="60">
+        <v>0.71699999999999997</v>
+      </c>
+      <c r="H5" s="60">
+        <v>0.77159999999999995</v>
+      </c>
+      <c r="I5" s="60">
+        <v>1.1014999999999999</v>
+      </c>
+      <c r="J5" s="60">
+        <v>1.0235000000000001</v>
+      </c>
+      <c r="K5" s="60">
+        <v>0.38669999999999999</v>
+      </c>
+      <c r="L5" s="62">
+        <v>0.73472999999999999</v>
+      </c>
+      <c r="M5" s="56"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="69" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="64">
+        <v>0.52</v>
+      </c>
+      <c r="Q5" s="56"/>
+      <c r="R5" s="69" t="s">
+        <v>17</v>
+      </c>
+      <c r="S5" s="64">
+        <v>0.46</v>
+      </c>
+      <c r="T5" s="56"/>
+      <c r="U5" s="56"/>
+      <c r="V5" s="56"/>
+      <c r="W5" s="68"/>
+      <c r="X5" s="55"/>
+    </row>
+    <row r="6" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="58">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B6" s="59">
+        <v>4.7</v>
+      </c>
+      <c r="C6" s="60">
+        <v>4.2799999999999998E-2</v>
+      </c>
+      <c r="D6" s="60">
+        <v>3.6400000000000002E-2</v>
+      </c>
+      <c r="E6" s="60">
+        <v>0.54049999999999998</v>
+      </c>
+      <c r="F6" s="60">
+        <v>0.45950000000000002</v>
+      </c>
+      <c r="G6" s="60">
+        <v>0.70820000000000005</v>
+      </c>
+      <c r="H6" s="60">
+        <v>0.77939999999999998</v>
+      </c>
+      <c r="I6" s="60">
+        <v>1.1760999999999999</v>
+      </c>
+      <c r="J6" s="60">
+        <v>1.0685</v>
+      </c>
+      <c r="K6" s="60">
+        <v>0.3962</v>
+      </c>
+      <c r="L6" s="62">
+        <v>0.75278</v>
+      </c>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="56"/>
+      <c r="P6" s="56"/>
+      <c r="Q6" s="56"/>
+      <c r="R6" s="56"/>
+      <c r="S6" s="56"/>
+      <c r="T6" s="56"/>
+      <c r="U6" s="56"/>
+      <c r="V6" s="56"/>
+      <c r="W6" s="56"/>
+      <c r="X6" s="56"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" s="58">
+        <v>2.6</v>
+      </c>
+      <c r="B7" s="59">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C7" s="60">
+        <v>4.8399999999999999E-2</v>
+      </c>
+      <c r="D7" s="60">
+        <v>3.4099999999999998E-2</v>
+      </c>
+      <c r="E7" s="60">
+        <v>0.58679999999999999</v>
+      </c>
+      <c r="F7" s="60">
+        <v>0.41320000000000001</v>
+      </c>
+      <c r="G7" s="60">
+        <v>0.68310000000000004</v>
+      </c>
+      <c r="H7" s="60">
+        <v>0.80169999999999997</v>
+      </c>
+      <c r="I7" s="60">
+        <v>1.4200999999999999</v>
+      </c>
+      <c r="J7" s="60">
+        <v>1.2101</v>
+      </c>
+      <c r="K7" s="60">
+        <v>0.4304</v>
+      </c>
+      <c r="L7" s="62">
+        <v>0.81776000000000004</v>
+      </c>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="56"/>
+      <c r="Q7" s="56"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="56"/>
+      <c r="T7" s="56"/>
+      <c r="U7" s="56"/>
+      <c r="V7" s="56"/>
+      <c r="W7" s="56"/>
+      <c r="X7" s="56"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" s="58">
+        <v>3</v>
+      </c>
+      <c r="B8" s="59">
+        <v>4</v>
+      </c>
+      <c r="C8" s="60">
+        <v>5.5800000000000002E-2</v>
+      </c>
+      <c r="D8" s="60">
+        <v>3.1E-2</v>
+      </c>
+      <c r="E8" s="60">
+        <v>0.64319999999999999</v>
+      </c>
+      <c r="F8" s="60">
+        <v>0.35680000000000001</v>
+      </c>
+      <c r="G8" s="60">
+        <v>0.65269999999999995</v>
+      </c>
+      <c r="H8" s="60">
+        <v>0.82869999999999999</v>
+      </c>
+      <c r="I8" s="60">
+        <v>1.8025</v>
+      </c>
+      <c r="J8" s="60">
+        <v>1.4196</v>
+      </c>
+      <c r="K8" s="60">
+        <v>0.47149999999999997</v>
+      </c>
+      <c r="L8" s="62">
+        <v>0.89585000000000004</v>
+      </c>
+      <c r="M8" s="56"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="56"/>
+      <c r="P8" s="56"/>
+      <c r="Q8" s="56"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="56"/>
+      <c r="T8" s="56"/>
+      <c r="U8" s="56"/>
+      <c r="V8" s="56"/>
+      <c r="W8" s="56"/>
+      <c r="X8" s="56"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" s="58">
+        <v>3.3</v>
+      </c>
+      <c r="B9" s="59">
+        <v>3.7</v>
+      </c>
+      <c r="C9" s="60">
+        <v>6.1400000000000003E-2</v>
+      </c>
+      <c r="D9" s="60">
+        <v>2.86E-2</v>
+      </c>
+      <c r="E9" s="60">
+        <v>0.68189999999999995</v>
+      </c>
+      <c r="F9" s="60">
+        <v>0.31809999999999999</v>
+      </c>
+      <c r="G9" s="60">
+        <v>0.63180000000000003</v>
+      </c>
+      <c r="H9" s="60">
+        <v>0.84730000000000005</v>
+      </c>
+      <c r="I9" s="60">
+        <v>2.1435</v>
+      </c>
+      <c r="J9" s="60">
+        <v>1.5983000000000001</v>
+      </c>
+      <c r="K9" s="60">
+        <v>0.50219999999999998</v>
+      </c>
+      <c r="L9" s="62">
+        <v>0.95418000000000003</v>
+      </c>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="56"/>
+      <c r="U9" s="56"/>
+      <c r="V9" s="56"/>
+      <c r="W9" s="56"/>
+      <c r="X9" s="56"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" s="58">
+        <v>3.6</v>
+      </c>
+      <c r="B10" s="59">
+        <v>3.4</v>
+      </c>
+      <c r="C10" s="60">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="D10" s="60">
+        <v>2.63E-2</v>
+      </c>
+      <c r="E10" s="60">
+        <v>0.71789999999999998</v>
+      </c>
+      <c r="F10" s="60">
+        <v>0.28210000000000002</v>
+      </c>
+      <c r="G10" s="60">
+        <v>0.61229999999999996</v>
+      </c>
+      <c r="H10" s="60">
+        <v>0.86460000000000004</v>
+      </c>
+      <c r="I10" s="60">
+        <v>2.5447000000000002</v>
+      </c>
+      <c r="J10" s="60">
+        <v>1.8023</v>
+      </c>
+      <c r="K10" s="60">
+        <v>0.53249999999999997</v>
+      </c>
+      <c r="L10" s="62">
+        <v>1.0117499999999999</v>
+      </c>
+      <c r="M10" s="56"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="56"/>
+      <c r="P10" s="56"/>
+      <c r="Q10" s="56"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="56"/>
+      <c r="T10" s="56"/>
+      <c r="U10" s="56"/>
+      <c r="V10" s="56"/>
+      <c r="W10" s="56"/>
+      <c r="X10" s="56"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" s="58">
+        <v>4</v>
+      </c>
+      <c r="B11" s="59">
+        <v>3</v>
+      </c>
+      <c r="C11" s="60">
+        <v>7.4399999999999994E-2</v>
+      </c>
+      <c r="D11" s="60">
+        <v>2.3199999999999998E-2</v>
+      </c>
+      <c r="E11" s="60">
+        <v>0.76219999999999999</v>
+      </c>
+      <c r="F11" s="60">
+        <v>0.23780000000000001</v>
+      </c>
+      <c r="G11" s="60">
+        <v>0.58840000000000003</v>
+      </c>
+      <c r="H11" s="60">
+        <v>0.88580000000000003</v>
+      </c>
+      <c r="I11" s="60">
+        <v>3.2044000000000001</v>
+      </c>
+      <c r="J11" s="60">
+        <v>2.1286</v>
+      </c>
+      <c r="K11" s="60">
+        <v>0.57389999999999997</v>
+      </c>
+      <c r="L11" s="62">
+        <v>1.0904100000000001</v>
+      </c>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="56"/>
+      <c r="P11" s="56"/>
+      <c r="Q11" s="56"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="56"/>
+      <c r="T11" s="56"/>
+      <c r="U11" s="56"/>
+      <c r="V11" s="56"/>
+      <c r="W11" s="56"/>
+      <c r="X11" s="56"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" s="58">
+        <v>4.3</v>
+      </c>
+      <c r="B12" s="59">
+        <v>2.7</v>
+      </c>
+      <c r="C12" s="60">
+        <v>0.08</v>
+      </c>
+      <c r="D12" s="60">
+        <v>2.0899999999999998E-2</v>
+      </c>
+      <c r="E12" s="60">
+        <v>0.79290000000000005</v>
+      </c>
+      <c r="F12" s="60">
+        <v>0.20710000000000001</v>
+      </c>
+      <c r="G12" s="60">
+        <v>0.57189999999999996</v>
+      </c>
+      <c r="H12" s="60">
+        <v>0.90059999999999996</v>
+      </c>
+      <c r="I12" s="60">
+        <v>3.8275000000000001</v>
+      </c>
+      <c r="J12" s="60">
+        <v>2.4304000000000001</v>
+      </c>
+      <c r="K12" s="60">
+        <v>0.60719999999999996</v>
+      </c>
+      <c r="L12" s="62">
+        <v>1.15368</v>
+      </c>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="56"/>
+      <c r="P12" s="56"/>
+      <c r="Q12" s="56"/>
+      <c r="R12" s="56"/>
+      <c r="S12" s="56"/>
+      <c r="T12" s="56"/>
+      <c r="U12" s="56"/>
+      <c r="V12" s="56"/>
+      <c r="W12" s="56"/>
+      <c r="X12" s="56"/>
+    </row>
+    <row r="13" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="70">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="B13" s="71">
+        <v>2.1</v>
+      </c>
+      <c r="C13" s="72">
+        <v>9.11E-2</v>
+      </c>
+      <c r="D13" s="72">
+        <v>1.6299999999999999E-2</v>
+      </c>
+      <c r="E13" s="72">
+        <v>0.84870000000000001</v>
+      </c>
+      <c r="F13" s="72">
+        <v>0.15129999999999999</v>
+      </c>
+      <c r="G13" s="72">
+        <v>0.54169999999999996</v>
+      </c>
+      <c r="H13" s="72">
+        <v>0.9274</v>
+      </c>
+      <c r="I13" s="72">
+        <v>5.6077000000000004</v>
+      </c>
+      <c r="J13" s="72">
+        <v>3.2757999999999998</v>
+      </c>
+      <c r="K13" s="72">
+        <v>0.67959999999999998</v>
+      </c>
+      <c r="L13" s="73">
+        <v>1.2912399999999999</v>
+      </c>
+      <c r="M13" s="56"/>
+      <c r="N13" s="74"/>
+      <c r="O13" s="97" t="s">
+        <v>47</v>
+      </c>
+      <c r="P13" s="97"/>
+      <c r="Q13" s="97"/>
+      <c r="R13" s="56"/>
+      <c r="S13" s="56"/>
+      <c r="T13" s="56"/>
+      <c r="U13" s="56"/>
+      <c r="V13" s="56"/>
+      <c r="W13" s="56"/>
+      <c r="X13" s="56"/>
+    </row>
+    <row r="14" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="56"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="75"/>
+      <c r="O14" s="97" t="s">
+        <v>48</v>
+      </c>
+      <c r="P14" s="97"/>
+      <c r="Q14" s="97"/>
+      <c r="R14" s="56"/>
+      <c r="S14" s="56"/>
+      <c r="T14" s="56"/>
+      <c r="U14" s="56"/>
+      <c r="V14" s="56"/>
+      <c r="W14" s="56"/>
+      <c r="X14" s="56"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15" s="56"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="56"/>
+      <c r="O15" s="56"/>
+      <c r="P15" s="56"/>
+      <c r="Q15" s="56"/>
+      <c r="R15" s="56"/>
+      <c r="S15" s="56"/>
+      <c r="T15" s="56"/>
+      <c r="U15" s="56"/>
+      <c r="V15" s="56"/>
+      <c r="W15" s="56"/>
+      <c r="X15" s="56"/>
+    </row>
+    <row r="16" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="56"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="56"/>
+      <c r="Q16" s="56"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="56"/>
+      <c r="T16" s="56"/>
+      <c r="U16" s="56"/>
+      <c r="V16" s="56"/>
+      <c r="W16" s="56"/>
+      <c r="X16" s="56"/>
+    </row>
+    <row r="17" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="56"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="98" t="s">
+        <v>19</v>
+      </c>
+      <c r="O17" s="99"/>
+      <c r="P17" s="100"/>
+      <c r="Q17" s="76" t="s">
+        <v>49</v>
+      </c>
+      <c r="R17" s="56"/>
+      <c r="S17" s="56"/>
+      <c r="T17" s="56"/>
+      <c r="U17" s="56"/>
+      <c r="V17" s="56"/>
+      <c r="W17" s="56"/>
+      <c r="X17" s="56"/>
+    </row>
+    <row r="18" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="56"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="98" t="s">
+        <v>20</v>
+      </c>
+      <c r="O18" s="99"/>
+      <c r="P18" s="100"/>
+      <c r="Q18" s="76" t="s">
+        <v>50</v>
+      </c>
+      <c r="R18" s="56"/>
+      <c r="S18" s="56"/>
+      <c r="T18" s="56"/>
+      <c r="U18" s="56"/>
+      <c r="V18" s="56"/>
+      <c r="W18" s="56"/>
+      <c r="X18" s="56"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A19" s="56"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="56"/>
+      <c r="O19" s="56"/>
+      <c r="P19" s="56"/>
+      <c r="Q19" s="56"/>
+      <c r="R19" s="56"/>
+      <c r="S19" s="56"/>
+      <c r="T19" s="56"/>
+      <c r="U19" s="56"/>
+      <c r="V19" s="56"/>
+      <c r="W19" s="56"/>
+      <c r="X19" s="56"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A20" s="56"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="56"/>
+      <c r="P20" s="56"/>
+      <c r="Q20" s="56"/>
+      <c r="R20" s="56"/>
+      <c r="S20" s="56"/>
+      <c r="T20" s="56"/>
+      <c r="U20" s="56"/>
+      <c r="V20" s="56"/>
+      <c r="W20" s="56"/>
+      <c r="X20" s="56"/>
+    </row>
+    <row r="21" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="56"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="56"/>
+      <c r="M21" s="56"/>
+      <c r="N21" s="56"/>
+      <c r="O21" s="56"/>
+      <c r="P21" s="56"/>
+      <c r="Q21" s="56"/>
+      <c r="R21" s="56"/>
+      <c r="S21" s="56"/>
+      <c r="T21" s="56"/>
+      <c r="U21" s="56"/>
+      <c r="V21" s="56"/>
+      <c r="W21" s="56"/>
+      <c r="X21" s="56"/>
+    </row>
+    <row r="22" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="56"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="101" t="s">
+        <v>26</v>
+      </c>
+      <c r="O22" s="102"/>
+      <c r="P22" s="102"/>
+      <c r="Q22" s="102"/>
+      <c r="R22" s="102"/>
+      <c r="S22" s="103"/>
+      <c r="T22" s="56"/>
+      <c r="U22" s="56"/>
+      <c r="V22" s="56"/>
+      <c r="W22" s="56"/>
+      <c r="X22" s="56"/>
+    </row>
+    <row r="23" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="56"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="77" t="s">
+        <v>51</v>
+      </c>
+      <c r="O23" s="77" t="s">
+        <v>52</v>
+      </c>
+      <c r="P23" s="77" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q23" s="78" t="s">
+        <v>25</v>
+      </c>
+      <c r="R23" s="79"/>
+      <c r="S23" s="79"/>
+      <c r="T23" s="56"/>
+      <c r="U23" s="56"/>
+      <c r="V23" s="56"/>
+      <c r="W23" s="56"/>
+      <c r="X23" s="56"/>
+    </row>
+    <row r="24" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="56"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="56"/>
+      <c r="N24" s="76">
+        <v>450</v>
+      </c>
+      <c r="O24" s="76">
+        <v>700</v>
+      </c>
+      <c r="P24" s="76">
+        <v>508</v>
+      </c>
+      <c r="Q24" s="76">
+        <v>49</v>
+      </c>
+      <c r="R24" s="79"/>
+      <c r="S24" s="79"/>
+      <c r="T24" s="56"/>
+      <c r="U24" s="56"/>
+      <c r="V24" s="56"/>
+      <c r="W24" s="56"/>
+      <c r="X24" s="56"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A25" s="56"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="56"/>
+      <c r="L25" s="56"/>
+      <c r="M25" s="56"/>
+      <c r="N25" s="56"/>
+      <c r="O25" s="56"/>
+      <c r="P25" s="56"/>
+      <c r="Q25" s="56"/>
+      <c r="R25" s="56"/>
+      <c r="S25" s="56"/>
+      <c r="T25" s="56"/>
+      <c r="U25" s="56"/>
+      <c r="V25" s="56"/>
+      <c r="W25" s="56"/>
+      <c r="X25" s="56"/>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A26" s="56"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="56"/>
+      <c r="M26" s="56"/>
+      <c r="N26" s="56"/>
+      <c r="O26" s="56"/>
+      <c r="P26" s="56"/>
+      <c r="Q26" s="56"/>
+      <c r="R26" s="56"/>
+      <c r="S26" s="56"/>
+      <c r="T26" s="56"/>
+      <c r="U26" s="56"/>
+      <c r="V26" s="56"/>
+      <c r="W26" s="56"/>
+      <c r="X26" s="56"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A27" s="56"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="56"/>
+      <c r="M27" s="56"/>
+      <c r="N27" s="56"/>
+      <c r="O27" s="56"/>
+      <c r="P27" s="56"/>
+      <c r="Q27" s="56"/>
+      <c r="R27" s="56"/>
+      <c r="S27" s="56"/>
+      <c r="T27" s="56"/>
+      <c r="U27" s="56"/>
+      <c r="V27" s="56"/>
+      <c r="W27" s="56"/>
+      <c r="X27" s="56"/>
+    </row>
+    <row r="28" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="56"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="56"/>
+      <c r="L28" s="56"/>
+      <c r="M28" s="56"/>
+      <c r="N28" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="O28" s="81" t="s">
+        <v>54</v>
+      </c>
+      <c r="P28" s="56"/>
+      <c r="Q28" s="56"/>
+      <c r="R28" s="56"/>
+      <c r="S28" s="56"/>
+      <c r="T28" s="56"/>
+      <c r="U28" s="56"/>
+      <c r="V28" s="56"/>
+      <c r="W28" s="56"/>
+      <c r="X28" s="56"/>
+    </row>
+    <row r="29" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="56"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="56"/>
+      <c r="L29" s="56"/>
+      <c r="M29" s="56"/>
+      <c r="N29" s="101" t="s">
+        <v>30</v>
+      </c>
+      <c r="O29" s="102"/>
+      <c r="P29" s="102"/>
+      <c r="Q29" s="102"/>
+      <c r="R29" s="102"/>
+      <c r="S29" s="103"/>
+      <c r="T29" s="56"/>
+      <c r="U29" s="104" t="s">
+        <v>33</v>
+      </c>
+      <c r="V29" s="105"/>
+      <c r="W29" s="105"/>
+      <c r="X29" s="106"/>
+    </row>
+    <row r="30" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="56"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="56"/>
+      <c r="L30" s="56"/>
+      <c r="M30" s="56"/>
+      <c r="N30" s="82" t="s">
+        <v>31</v>
+      </c>
+      <c r="O30" s="82" t="s">
+        <v>32</v>
+      </c>
+      <c r="P30" s="79"/>
+      <c r="Q30" s="79"/>
+      <c r="R30" s="79"/>
+      <c r="S30" s="79"/>
+      <c r="T30" s="56"/>
+      <c r="U30" s="83" t="s">
+        <v>34</v>
+      </c>
+      <c r="V30" s="84" t="s">
+        <v>35</v>
+      </c>
+      <c r="W30" s="85"/>
+      <c r="X30" s="86"/>
+    </row>
+    <row r="31" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="87"/>
+      <c r="B31" s="87"/>
+      <c r="C31" s="87"/>
+      <c r="D31" s="87"/>
+      <c r="E31" s="87"/>
+      <c r="F31" s="87"/>
+      <c r="G31" s="87"/>
+      <c r="H31" s="87"/>
+      <c r="I31" s="87"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="56"/>
+      <c r="L31" s="56"/>
+      <c r="M31" s="56"/>
+      <c r="N31" s="76">
+        <v>0</v>
+      </c>
+      <c r="O31" s="76">
+        <v>1.0820000000000001</v>
+      </c>
+      <c r="P31" s="79"/>
+      <c r="Q31" s="79"/>
+      <c r="R31" s="79"/>
+      <c r="S31" s="79"/>
+      <c r="T31" s="56"/>
+      <c r="U31" s="88">
+        <v>0.1</v>
+      </c>
+      <c r="V31" s="76">
+        <v>0.1082</v>
+      </c>
+      <c r="W31" s="79"/>
+      <c r="X31" s="89"/>
+    </row>
+    <row r="32" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="56"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="56"/>
+      <c r="L32" s="56"/>
+      <c r="M32" s="56"/>
+      <c r="N32" s="56"/>
+      <c r="O32" s="56"/>
+      <c r="P32" s="56"/>
+      <c r="Q32" s="56"/>
+      <c r="R32" s="56"/>
+      <c r="S32" s="56"/>
+      <c r="T32" s="56"/>
+      <c r="U32" s="88">
+        <v>0.2</v>
+      </c>
+      <c r="V32" s="76">
+        <v>0.21640000000000001</v>
+      </c>
+      <c r="W32" s="79"/>
+      <c r="X32" s="89"/>
+    </row>
+    <row r="33" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="56"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="56"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="56"/>
+      <c r="L33" s="56"/>
+      <c r="M33" s="56"/>
+      <c r="N33" s="56"/>
+      <c r="O33" s="56"/>
+      <c r="P33" s="56"/>
+      <c r="Q33" s="56"/>
+      <c r="R33" s="56"/>
+      <c r="S33" s="56"/>
+      <c r="T33" s="56"/>
+      <c r="U33" s="88">
+        <v>0.3</v>
+      </c>
+      <c r="V33" s="76">
+        <v>0.3246</v>
+      </c>
+      <c r="W33" s="79"/>
+      <c r="X33" s="89"/>
+    </row>
+    <row r="34" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="56"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="56"/>
+      <c r="L34" s="56"/>
+      <c r="M34" s="56"/>
+      <c r="N34" s="56"/>
+      <c r="O34" s="56"/>
+      <c r="P34" s="56"/>
+      <c r="Q34" s="56"/>
+      <c r="R34" s="56"/>
+      <c r="S34" s="56"/>
+      <c r="T34" s="56"/>
+      <c r="U34" s="88">
+        <v>0.4</v>
+      </c>
+      <c r="V34" s="76">
+        <v>0.43280000000000002</v>
+      </c>
+      <c r="W34" s="79"/>
+      <c r="X34" s="89"/>
+    </row>
+    <row r="35" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="56"/>
+      <c r="B35" s="56"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="56"/>
+      <c r="H35" s="56"/>
+      <c r="I35" s="56"/>
+      <c r="J35" s="56"/>
+      <c r="K35" s="56"/>
+      <c r="L35" s="56"/>
+      <c r="M35" s="56"/>
+      <c r="N35" s="56"/>
+      <c r="O35" s="56"/>
+      <c r="P35" s="56"/>
+      <c r="Q35" s="56"/>
+      <c r="R35" s="56"/>
+      <c r="S35" s="56"/>
+      <c r="T35" s="56"/>
+      <c r="U35" s="88">
+        <v>0.5</v>
+      </c>
+      <c r="V35" s="76">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="W35" s="79"/>
+      <c r="X35" s="89"/>
+    </row>
+    <row r="36" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="56"/>
+      <c r="B36" s="56"/>
+      <c r="C36" s="56"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="56"/>
+      <c r="H36" s="56"/>
+      <c r="I36" s="56"/>
+      <c r="J36" s="56"/>
+      <c r="K36" s="56"/>
+      <c r="L36" s="56"/>
+      <c r="M36" s="56"/>
+      <c r="N36" s="56"/>
+      <c r="O36" s="56"/>
+      <c r="P36" s="56"/>
+      <c r="Q36" s="56"/>
+      <c r="R36" s="56"/>
+      <c r="S36" s="56"/>
+      <c r="T36" s="56"/>
+      <c r="U36" s="88">
+        <v>0.6</v>
+      </c>
+      <c r="V36" s="76">
+        <v>0.6492</v>
+      </c>
+      <c r="W36" s="79"/>
+      <c r="X36" s="89"/>
+    </row>
+    <row r="37" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="56"/>
+      <c r="B37" s="56"/>
+      <c r="C37" s="56"/>
+      <c r="D37" s="56"/>
+      <c r="E37" s="56"/>
+      <c r="F37" s="56"/>
+      <c r="G37" s="56"/>
+      <c r="H37" s="56"/>
+      <c r="I37" s="56"/>
+      <c r="J37" s="56"/>
+      <c r="K37" s="56"/>
+      <c r="L37" s="56"/>
+      <c r="M37" s="56"/>
+      <c r="N37" s="56"/>
+      <c r="O37" s="56"/>
+      <c r="P37" s="56"/>
+      <c r="Q37" s="56"/>
+      <c r="R37" s="56"/>
+      <c r="S37" s="56"/>
+      <c r="T37" s="56"/>
+      <c r="U37" s="88">
+        <v>0.7</v>
+      </c>
+      <c r="V37" s="76">
+        <v>0.75739999999999996</v>
+      </c>
+      <c r="W37" s="79"/>
+      <c r="X37" s="89"/>
+    </row>
+    <row r="38" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="56"/>
+      <c r="B38" s="56"/>
+      <c r="C38" s="56"/>
+      <c r="D38" s="56"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="56"/>
+      <c r="H38" s="56"/>
+      <c r="I38" s="56"/>
+      <c r="J38" s="56"/>
+      <c r="K38" s="56"/>
+      <c r="L38" s="56"/>
+      <c r="M38" s="56"/>
+      <c r="N38" s="56"/>
+      <c r="O38" s="56"/>
+      <c r="P38" s="56"/>
+      <c r="Q38" s="56"/>
+      <c r="R38" s="56"/>
+      <c r="S38" s="56"/>
+      <c r="T38" s="56"/>
+      <c r="U38" s="90">
+        <v>0.8</v>
+      </c>
+      <c r="V38" s="91">
+        <v>0.86560000000000004</v>
+      </c>
+      <c r="W38" s="92"/>
+      <c r="X38" s="93"/>
+    </row>
+    <row r="39" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="N22:S22"/>
+    <mergeCell ref="N29:S29"/>
+    <mergeCell ref="U29:X29"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="N17:P17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Spectrophotometer/Content/Data.xlsx
+++ b/Spectrophotometer/Content/Data.xlsx
@@ -170,9 +170,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -245,7 +246,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -590,11 +591,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -603,22 +624,10 @@
     <xf numFmtId="16" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -681,6 +690,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -985,7 +1007,7 @@
   <dimension ref="A1:X38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N32" sqref="N32:O33"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -996,771 +1018,783 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="J1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="31" t="s">
+      <c r="K1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="32" t="s">
+      <c r="L1" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="49" t="s">
+      <c r="O1" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="50"/>
-      <c r="R1" s="49" t="s">
+      <c r="P1" s="40"/>
+      <c r="R1" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="50"/>
-      <c r="U1" s="33" t="s">
+      <c r="S1" s="40"/>
+      <c r="U1" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
+      <c r="A2" s="44">
         <v>1</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="47">
         <f>$P$2-A2</f>
         <v>5.5</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="8">
         <f>$S$3/$S$4*A2</f>
         <v>8.6989918386941902E-3</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="8">
         <f>$P$3/$P$4*B2</f>
         <v>5.1802836596084693E-2</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="8">
         <f>C2/(C2+D2)</f>
         <v>0.14378064372173022</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="8">
         <f>D2/(C2+D2)</f>
         <v>0.85621935627826973</v>
       </c>
-      <c r="G2" s="15">
+      <c r="G2" s="8">
         <f>$S$5*E2+F2</f>
         <v>0.93098529101356942</v>
       </c>
-      <c r="H2" s="15">
+      <c r="H2" s="8">
         <f>$P$5*F2+E2</f>
         <v>0.53764154760973426</v>
       </c>
-      <c r="I2" s="15">
+      <c r="I2" s="8">
         <f>E2/F2</f>
         <v>0.16792500971561986</v>
       </c>
-      <c r="J2" s="15">
+      <c r="J2" s="42">
         <f>I2*G2/H2</f>
         <v>0.2907805669662169</v>
       </c>
-      <c r="K2" s="16">
-        <v>0.2253</v>
-      </c>
-      <c r="L2" s="12">
+      <c r="K2" s="42">
+        <f>($S$5*(E2^2)+E2*F2)/($S$5*(E2^2)+2*E2*F2+$P$5*(F2^2))</f>
+        <v>0.22527498043269453</v>
+      </c>
+      <c r="L2" s="49">
         <f>K2*$U$2</f>
-        <v>0.31541999999999998</v>
+        <v>0.31538497260577231</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="21">
+      <c r="P2" s="11">
         <v>6.5</v>
       </c>
       <c r="R2" s="1"/>
       <c r="S2" s="5"/>
-      <c r="U2" s="20">
+      <c r="U2" s="10">
         <v>1.4</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+      <c r="A3" s="44">
         <v>1.3</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="47">
         <f t="shared" ref="B3:B13" si="0">$P$2-A3</f>
         <v>5.2</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="8">
         <f t="shared" ref="C3:C13" si="1">$S$3/$S$4*A3</f>
         <v>1.1308689390302447E-2</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="8">
         <f t="shared" ref="D3:D13" si="2">$P$3/$P$4*B3</f>
         <v>4.897722732720735E-2</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="8">
         <f t="shared" ref="E3:E13" si="3">C3/(C3+D3)</f>
         <v>0.18758426521559196</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="8">
         <f t="shared" ref="F3:F13" si="4">D3/(C3+D3)</f>
         <v>0.81241573478440798</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="8">
         <f t="shared" ref="G3:G13" si="5">$S$5*E3+F3</f>
         <v>0.90995955269651585</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3" s="8">
         <f t="shared" ref="H3:H13" si="6">$P$5*F3+E3</f>
         <v>0.56129550321641963</v>
       </c>
-      <c r="I3" s="15">
+      <c r="I3" s="8">
         <f t="shared" ref="I3:I13" si="7">E3/F3</f>
         <v>0.23089688835897729</v>
       </c>
-      <c r="J3" s="15">
+      <c r="J3" s="8">
         <f t="shared" ref="J3:J13" si="8">I3*G3/H3</f>
         <v>0.37432480404023671</v>
       </c>
-      <c r="K3" s="17">
-        <v>0.27229999999999999</v>
-      </c>
-      <c r="L3" s="12">
-        <f t="shared" ref="L3:L13" si="9">K3*$U$2</f>
-        <v>0.38121999999999995</v>
+      <c r="K3" s="8">
+        <f t="shared" ref="K3:K13" si="9">($S$5*(E3^2)+E3*F3)/($S$5*(E3^2)+2*E3*F3+$P$5*(F3^2))</f>
+        <v>0.2723699688310926</v>
+      </c>
+      <c r="L3" s="49">
+        <f t="shared" ref="L3:L13" si="10">K3*$U$2</f>
+        <v>0.38131795636352961</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="21">
+      <c r="P3" s="11">
         <v>0.94299999999999995</v>
       </c>
       <c r="R3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="22">
+      <c r="S3" s="12">
         <v>0.90600000000000003</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+      <c r="A4" s="44">
         <v>1.6</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="47">
         <f t="shared" si="0"/>
         <v>4.9000000000000004</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="8">
         <f t="shared" si="1"/>
         <v>1.3918386941910705E-2</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="8">
         <f t="shared" si="2"/>
         <v>4.6151618058330006E-2</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="8">
         <f t="shared" si="3"/>
         <v>0.23170277648312051</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="8">
         <f t="shared" si="4"/>
         <v>0.76829722351687946</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="8">
         <f t="shared" si="5"/>
         <v>0.88878266728810207</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="8">
         <f t="shared" si="6"/>
         <v>0.58511949930088503</v>
       </c>
-      <c r="I4" s="15">
+      <c r="I4" s="8">
         <f t="shared" si="7"/>
         <v>0.30157960928519484</v>
       </c>
-      <c r="J4" s="15">
+      <c r="J4" s="8">
         <f t="shared" si="8"/>
         <v>0.45809228689260623</v>
       </c>
-      <c r="K4" s="17">
-        <v>0.31380000000000002</v>
-      </c>
-      <c r="L4" s="12">
+      <c r="K4" s="8">
         <f t="shared" si="9"/>
-        <v>0.43931999999999999</v>
+        <v>0.31417235452830183</v>
+      </c>
+      <c r="L4" s="49">
+        <f t="shared" si="10"/>
+        <v>0.43984129633962255</v>
       </c>
       <c r="O4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P4" s="21">
+      <c r="P4" s="11">
         <v>100.12</v>
       </c>
       <c r="R4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S4" s="22">
+      <c r="S4" s="12">
         <v>104.15</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
+      <c r="A5" s="44">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="47">
         <f t="shared" si="0"/>
         <v>4.3</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="8">
         <f t="shared" si="1"/>
         <v>1.913778204512722E-2</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="8">
         <f t="shared" si="2"/>
         <v>4.0500399520575305E-2</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="8">
         <f t="shared" si="3"/>
         <v>0.32089814851318699</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="8">
         <f t="shared" si="4"/>
         <v>0.67910185148681301</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="8">
         <f t="shared" si="5"/>
         <v>0.84596888871367026</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="8">
         <f t="shared" si="6"/>
         <v>0.63328500019712097</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="8">
         <f t="shared" si="7"/>
         <v>0.47253316687418612</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="8">
         <f t="shared" si="8"/>
         <v>0.63122979059424733</v>
       </c>
-      <c r="K5" s="17">
-        <v>0.38669999999999999</v>
-      </c>
-      <c r="L5" s="12">
+      <c r="K5" s="8">
         <f t="shared" si="9"/>
-        <v>0.54137999999999997</v>
+        <v>0.38696558524982189</v>
+      </c>
+      <c r="L5" s="49">
+        <f t="shared" si="10"/>
+        <v>0.54175181934975059</v>
       </c>
       <c r="O5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="P5" s="21">
+      <c r="P5" s="11">
         <v>0.46</v>
       </c>
       <c r="R5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S5" s="22">
+      <c r="S5" s="12">
         <v>0.52</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+      <c r="A6" s="44">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="47">
         <f t="shared" si="0"/>
         <v>4.2</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="8">
         <f t="shared" si="1"/>
         <v>2.0007681228996637E-2</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="8">
         <f t="shared" si="2"/>
         <v>3.9558529764282861E-2</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="8">
         <f t="shared" si="3"/>
         <v>0.33588977535022307</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="8">
         <f t="shared" si="4"/>
         <v>0.66411022464977698</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="8">
         <f t="shared" si="5"/>
         <v>0.83877290783189296</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="8">
         <f t="shared" si="6"/>
         <v>0.64138047868912051</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="8">
         <f t="shared" si="7"/>
         <v>0.50577413640537883</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J6" s="8">
         <f t="shared" si="8"/>
         <v>0.66143210963632992</v>
       </c>
-      <c r="K6" s="17">
-        <v>0.3962</v>
-      </c>
-      <c r="L6" s="12">
+      <c r="K6" s="8">
         <f t="shared" si="9"/>
-        <v>0.55467999999999995</v>
+        <v>0.39810962229513575</v>
+      </c>
+      <c r="L6" s="49">
+        <f t="shared" si="10"/>
+        <v>0.55735347121319001</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+      <c r="A7" s="44">
         <v>2.6</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="47">
         <f t="shared" si="0"/>
         <v>3.9</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="8">
         <f t="shared" si="1"/>
         <v>2.2617378780604894E-2</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="8">
         <f t="shared" si="2"/>
         <v>3.6732920495405511E-2</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="8">
         <f t="shared" si="3"/>
         <v>0.38108280929506477</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="8">
         <f t="shared" si="4"/>
         <v>0.61891719070493523</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="8">
         <f t="shared" si="5"/>
         <v>0.81708025153836894</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="8">
         <f t="shared" si="6"/>
         <v>0.66578471701933495</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I7" s="8">
         <f t="shared" si="7"/>
         <v>0.61572503562393943</v>
       </c>
-      <c r="J7" s="15">
+      <c r="J7" s="8">
         <f t="shared" si="8"/>
         <v>0.7556448114916241</v>
       </c>
-      <c r="K7" s="17">
-        <v>0.4304</v>
-      </c>
-      <c r="L7" s="12">
+      <c r="K7" s="8">
         <f t="shared" si="9"/>
-        <v>0.60255999999999998</v>
+        <v>0.4304087059896905</v>
+      </c>
+      <c r="L7" s="49">
+        <f t="shared" si="10"/>
+        <v>0.6025721883855667</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+      <c r="A8" s="44">
         <v>3</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="47">
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="8">
         <f t="shared" si="1"/>
         <v>2.609697551608257E-2</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="8">
         <f t="shared" si="2"/>
         <v>3.2965441470235717E-2</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="8">
         <f t="shared" si="3"/>
         <v>0.44185417474750305</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="8">
         <f t="shared" si="4"/>
         <v>0.55814582525249701</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="8">
         <f t="shared" si="5"/>
         <v>0.78790999612119861</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="8">
         <f t="shared" si="6"/>
         <v>0.69860125436365172</v>
       </c>
-      <c r="I8" s="15">
+      <c r="I8" s="8">
         <f t="shared" si="7"/>
         <v>0.79164647437363644</v>
       </c>
-      <c r="J8" s="15">
+      <c r="J8" s="8">
         <f t="shared" si="8"/>
         <v>0.89285005810826379</v>
       </c>
-      <c r="K8" s="17">
-        <v>0.47149999999999997</v>
-      </c>
-      <c r="L8" s="12">
+      <c r="K8" s="8">
         <f t="shared" si="9"/>
-        <v>0.66009999999999991</v>
+        <v>0.47169613582630443</v>
+      </c>
+      <c r="L8" s="49">
+        <f t="shared" si="10"/>
+        <v>0.6603745901568262</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
+      <c r="A9" s="44">
         <v>3.3</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="47">
         <f t="shared" si="0"/>
         <v>3.2</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="8">
         <f t="shared" si="1"/>
         <v>2.8706673067690827E-2</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="8">
         <f t="shared" si="2"/>
         <v>3.0139832201358369E-2</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="8">
         <f t="shared" si="3"/>
         <v>0.48782290361071518</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="8">
         <f t="shared" si="4"/>
         <v>0.51217709638928488</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="8">
         <f t="shared" si="5"/>
         <v>0.7658450062668567</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="8">
         <f t="shared" si="6"/>
         <v>0.72342436794978626</v>
       </c>
-      <c r="I9" s="15">
+      <c r="I9" s="8">
         <f t="shared" si="7"/>
         <v>0.95244966448078128</v>
       </c>
-      <c r="J9" s="15">
+      <c r="J9" s="8">
         <f t="shared" si="8"/>
         <v>1.0083000401692026</v>
       </c>
-      <c r="K9" s="17">
-        <v>0.50219999999999998</v>
-      </c>
-      <c r="L9" s="12">
+      <c r="K9" s="8">
         <f t="shared" si="9"/>
-        <v>0.70307999999999993</v>
+        <v>0.50206643429845854</v>
+      </c>
+      <c r="L9" s="49">
+        <f t="shared" si="10"/>
+        <v>0.70289300801784194</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+      <c r="A10" s="44">
         <v>3.6</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="47">
         <f t="shared" si="0"/>
         <v>2.9</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="8">
         <f t="shared" si="1"/>
         <v>3.1316370619299087E-2</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="8">
         <f t="shared" si="2"/>
         <v>2.7314222932481022E-2</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="8">
         <f t="shared" si="3"/>
         <v>0.53413019930698413</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="8">
         <f t="shared" si="4"/>
         <v>0.46586980069301587</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="8">
         <f t="shared" si="5"/>
         <v>0.74361750433264762</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H10" s="8">
         <f t="shared" si="6"/>
         <v>0.74843030762577145</v>
       </c>
-      <c r="I10" s="15">
+      <c r="I10" s="8">
         <f t="shared" si="7"/>
         <v>1.1465224801273357</v>
       </c>
-      <c r="J10" s="15">
+      <c r="J10" s="8">
         <f t="shared" si="8"/>
         <v>1.1391497333107325</v>
       </c>
-      <c r="K10" s="17">
-        <v>0.53249999999999997</v>
-      </c>
-      <c r="L10" s="12">
+      <c r="K10" s="8">
         <f t="shared" si="9"/>
-        <v>0.74549999999999994</v>
+        <v>0.53252454261239868</v>
+      </c>
+      <c r="L10" s="49">
+        <f t="shared" si="10"/>
+        <v>0.74553435965735815</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
+      <c r="A11" s="44">
         <v>4</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="47">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="8">
         <f t="shared" si="1"/>
         <v>3.4795967354776761E-2</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="8">
         <f t="shared" si="2"/>
         <v>2.3546743907311225E-2</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="8">
         <f t="shared" si="3"/>
         <v>0.59640641653532023</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="8">
         <f t="shared" si="4"/>
         <v>0.40359358346467988</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="8">
         <f t="shared" si="5"/>
         <v>0.71372492006304644</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="8">
         <f t="shared" si="6"/>
         <v>0.78205946492907297</v>
       </c>
-      <c r="I11" s="15">
+      <c r="I11" s="8">
         <f t="shared" si="7"/>
         <v>1.4777400854974549</v>
       </c>
-      <c r="J11" s="15">
+      <c r="J11" s="8">
         <f t="shared" si="8"/>
         <v>1.3486185791399943</v>
       </c>
-      <c r="K11" s="17">
-        <v>0.57389999999999997</v>
-      </c>
-      <c r="L11" s="12">
+      <c r="K11" s="8">
         <f t="shared" si="9"/>
-        <v>0.80345999999999995</v>
+        <v>0.57421779386324401</v>
+      </c>
+      <c r="L11" s="49">
+        <f t="shared" si="10"/>
+        <v>0.80390491140854159</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
+      <c r="A12" s="44">
         <v>4.3</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="47">
         <f t="shared" si="0"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="8">
         <f t="shared" si="1"/>
         <v>3.7405664906385014E-2</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="8">
         <f t="shared" si="2"/>
         <v>2.0721134638433881E-2</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="8">
         <f t="shared" si="3"/>
         <v>0.64351839769783359</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="8">
         <f t="shared" si="4"/>
         <v>0.35648160230216652</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="8">
         <f t="shared" si="5"/>
         <v>0.69111116910504</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H12" s="8">
         <f t="shared" si="6"/>
         <v>0.80749993475683013</v>
       </c>
-      <c r="I12" s="15">
+      <c r="I12" s="8">
         <f t="shared" si="7"/>
         <v>1.8051938544429129</v>
       </c>
-      <c r="J12" s="15">
+      <c r="J12" s="8">
         <f t="shared" si="8"/>
         <v>1.5450027690478676</v>
       </c>
-      <c r="K12" s="17">
-        <v>0.60719999999999996</v>
-      </c>
-      <c r="L12" s="12">
+      <c r="K12" s="8">
         <f t="shared" si="9"/>
-        <v>0.85007999999999995</v>
+        <v>0.60707311907007533</v>
+      </c>
+      <c r="L12" s="49">
+        <f t="shared" si="10"/>
+        <v>0.84990236669810537</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9">
+      <c r="A13" s="45">
         <v>4.9000000000000004</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="48">
         <f t="shared" si="0"/>
         <v>1.5999999999999996</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="9">
         <f t="shared" si="1"/>
         <v>4.2625060009601534E-2</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="9">
         <f t="shared" si="2"/>
         <v>1.5069916100679181E-2</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="9">
         <f t="shared" si="3"/>
         <v>0.73880020208563946</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="9">
         <f t="shared" si="4"/>
         <v>0.26119979791436054</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G13" s="9">
         <f t="shared" si="5"/>
         <v>0.64537590299889303</v>
       </c>
-      <c r="H13" s="18">
+      <c r="H13" s="9">
         <f t="shared" si="6"/>
         <v>0.85895210912624531</v>
       </c>
-      <c r="I13" s="18">
+      <c r="I13" s="9">
         <f t="shared" si="7"/>
         <v>2.8284868823974723</v>
       </c>
-      <c r="J13" s="18">
+      <c r="J13" s="9">
         <f t="shared" si="8"/>
         <v>2.1251909814910261</v>
       </c>
-      <c r="K13" s="19">
-        <v>0.67959999999999998</v>
-      </c>
-      <c r="L13" s="13">
+      <c r="K13" s="9">
         <f t="shared" si="9"/>
-        <v>0.95143999999999995</v>
-      </c>
-      <c r="N13" s="7"/>
-      <c r="O13" s="51" t="s">
+        <v>0.68001955530957647</v>
+      </c>
+      <c r="L13" s="50">
+        <f t="shared" si="10"/>
+        <v>0.95202737743340704</v>
+      </c>
+      <c r="N13" s="6"/>
+      <c r="O13" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="P13" s="51"/>
-      <c r="Q13" s="51"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="41"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="N14" s="14"/>
-      <c r="O14" s="51" t="s">
+      <c r="N14" s="7"/>
+      <c r="O14" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="P14" s="51"/>
-      <c r="Q14" s="51"/>
+      <c r="P14" s="41"/>
+      <c r="Q14" s="41"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="27"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="N17" s="48" t="s">
+      <c r="N17" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="O17" s="48"/>
-      <c r="P17" s="48"/>
-      <c r="Q17" s="23" t="s">
+      <c r="O17" s="38"/>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="13" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="N18" s="48" t="s">
+      <c r="N18" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="O18" s="48"/>
-      <c r="P18" s="48"/>
-      <c r="Q18" s="23" t="s">
+      <c r="O18" s="38"/>
+      <c r="P18" s="38"/>
+      <c r="Q18" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="N22" s="44" t="s">
+      <c r="N22" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="O22" s="44"/>
-      <c r="P22" s="44"/>
-      <c r="Q22" s="44"/>
-      <c r="R22" s="44"/>
-      <c r="S22" s="44"/>
+      <c r="O22" s="34"/>
+      <c r="P22" s="34"/>
+      <c r="Q22" s="34"/>
+      <c r="R22" s="34"/>
+      <c r="S22" s="34"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="N23" s="24" t="s">
+      <c r="N23" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="O23" s="24" t="s">
+      <c r="O23" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="P23" s="24" t="s">
+      <c r="P23" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="Q23" s="25" t="s">
+      <c r="Q23" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="R23" s="26"/>
-      <c r="S23" s="26"/>
+      <c r="R23" s="16"/>
+      <c r="S23" s="16"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="N24" s="23">
+      <c r="N24" s="13">
         <v>140</v>
       </c>
-      <c r="O24" s="23">
+      <c r="O24" s="13">
         <v>450</v>
       </c>
-      <c r="P24" s="23">
+      <c r="P24" s="13">
         <v>269</v>
       </c>
-      <c r="Q24" s="23">
+      <c r="Q24" s="13">
         <v>49</v>
       </c>
-      <c r="R24" s="26"/>
-      <c r="S24" s="26"/>
+      <c r="R24" s="16"/>
+      <c r="S24" s="16"/>
     </row>
     <row r="28" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N28" s="14" t="s">
+      <c r="N28" s="7" t="s">
         <v>36</v>
       </c>
       <c r="O28" t="s">
@@ -1768,147 +1802,147 @@
       </c>
     </row>
     <row r="29" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N29" s="44" t="s">
+      <c r="N29" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="O29" s="44"/>
-      <c r="P29" s="44"/>
-      <c r="Q29" s="44"/>
-      <c r="R29" s="44"/>
-      <c r="S29" s="44"/>
-      <c r="U29" s="45" t="s">
+      <c r="O29" s="34"/>
+      <c r="P29" s="34"/>
+      <c r="Q29" s="34"/>
+      <c r="R29" s="34"/>
+      <c r="S29" s="34"/>
+      <c r="U29" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="V29" s="46"/>
-      <c r="W29" s="46"/>
-      <c r="X29" s="47"/>
+      <c r="V29" s="36"/>
+      <c r="W29" s="36"/>
+      <c r="X29" s="37"/>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="N30" s="30" t="s">
+      <c r="N30" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="O30" s="30" t="s">
+      <c r="O30" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="P30" s="26"/>
-      <c r="Q30" s="26"/>
-      <c r="R30" s="26"/>
-      <c r="S30" s="26"/>
-      <c r="U30" s="37" t="s">
+      <c r="P30" s="16"/>
+      <c r="Q30" s="16"/>
+      <c r="R30" s="16"/>
+      <c r="S30" s="16"/>
+      <c r="U30" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="V30" s="38" t="s">
+      <c r="V30" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="W30" s="39"/>
-      <c r="X30" s="40"/>
+      <c r="W30" s="29"/>
+      <c r="X30" s="30"/>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A31" s="29"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="N31" s="23">
+      <c r="A31" s="19"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="N31" s="13">
         <v>0</v>
       </c>
-      <c r="O31" s="23">
+      <c r="O31" s="13">
         <v>1.0820000000000001</v>
       </c>
-      <c r="P31" s="26"/>
-      <c r="Q31" s="26"/>
-      <c r="R31" s="26"/>
-      <c r="S31" s="26"/>
-      <c r="U31" s="41">
+      <c r="P31" s="16"/>
+      <c r="Q31" s="16"/>
+      <c r="R31" s="16"/>
+      <c r="S31" s="16"/>
+      <c r="U31" s="31">
         <v>0.1</v>
       </c>
-      <c r="V31" s="23">
+      <c r="V31" s="13">
         <f>$O$31*U31</f>
         <v>0.10820000000000002</v>
       </c>
-      <c r="W31" s="26"/>
-      <c r="X31" s="34"/>
+      <c r="W31" s="16"/>
+      <c r="X31" s="24"/>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="U32" s="41">
+      <c r="U32" s="31">
         <v>0.2</v>
       </c>
-      <c r="V32" s="23">
-        <f t="shared" ref="V32:V38" si="10">$O$31*U32</f>
+      <c r="V32" s="13">
+        <f t="shared" ref="V32:V38" si="11">$O$31*U32</f>
         <v>0.21640000000000004</v>
       </c>
-      <c r="W32" s="26"/>
-      <c r="X32" s="34"/>
+      <c r="W32" s="16"/>
+      <c r="X32" s="24"/>
     </row>
     <row r="33" spans="21:24" x14ac:dyDescent="0.25">
-      <c r="U33" s="41">
+      <c r="U33" s="31">
         <v>0.3</v>
       </c>
-      <c r="V33" s="23">
-        <f t="shared" si="10"/>
+      <c r="V33" s="13">
+        <f t="shared" si="11"/>
         <v>0.3246</v>
       </c>
-      <c r="W33" s="26"/>
-      <c r="X33" s="34"/>
+      <c r="W33" s="16"/>
+      <c r="X33" s="24"/>
     </row>
     <row r="34" spans="21:24" x14ac:dyDescent="0.25">
-      <c r="U34" s="41">
+      <c r="U34" s="31">
         <v>0.4</v>
       </c>
-      <c r="V34" s="23">
-        <f t="shared" si="10"/>
+      <c r="V34" s="13">
+        <f t="shared" si="11"/>
         <v>0.43280000000000007</v>
       </c>
-      <c r="W34" s="26"/>
-      <c r="X34" s="34"/>
+      <c r="W34" s="16"/>
+      <c r="X34" s="24"/>
     </row>
     <row r="35" spans="21:24" x14ac:dyDescent="0.25">
-      <c r="U35" s="41">
+      <c r="U35" s="31">
         <v>0.5</v>
       </c>
-      <c r="V35" s="23">
-        <f t="shared" si="10"/>
+      <c r="V35" s="13">
+        <f t="shared" si="11"/>
         <v>0.54100000000000004</v>
       </c>
-      <c r="W35" s="26"/>
-      <c r="X35" s="34"/>
+      <c r="W35" s="16"/>
+      <c r="X35" s="24"/>
     </row>
     <row r="36" spans="21:24" x14ac:dyDescent="0.25">
-      <c r="U36" s="41">
+      <c r="U36" s="31">
         <v>0.6</v>
       </c>
-      <c r="V36" s="23">
-        <f t="shared" si="10"/>
+      <c r="V36" s="13">
+        <f t="shared" si="11"/>
         <v>0.6492</v>
       </c>
-      <c r="W36" s="26"/>
-      <c r="X36" s="34"/>
+      <c r="W36" s="16"/>
+      <c r="X36" s="24"/>
     </row>
     <row r="37" spans="21:24" x14ac:dyDescent="0.25">
-      <c r="U37" s="41">
+      <c r="U37" s="31">
         <v>0.7</v>
       </c>
-      <c r="V37" s="23">
-        <f t="shared" si="10"/>
+      <c r="V37" s="13">
+        <f t="shared" si="11"/>
         <v>0.75739999999999996</v>
       </c>
-      <c r="W37" s="26"/>
-      <c r="X37" s="34"/>
+      <c r="W37" s="16"/>
+      <c r="X37" s="24"/>
     </row>
     <row r="38" spans="21:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="U38" s="42">
+      <c r="U38" s="32">
         <v>0.8</v>
       </c>
-      <c r="V38" s="43">
-        <f t="shared" si="10"/>
+      <c r="V38" s="33">
+        <f t="shared" si="11"/>
         <v>0.86560000000000015</v>
       </c>
-      <c r="W38" s="35"/>
-      <c r="X38" s="36"/>
+      <c r="W38" s="25"/>
+      <c r="X38" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/Spectrophotometer/Content/Data.xlsx
+++ b/Spectrophotometer/Content/Data.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Стирол и ММА" sheetId="1" r:id="rId1"/>
+    <sheet name="НЕМА и 2-винилимидазол" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="53">
   <si>
     <t>Стирол V1 (мл)</t>
   </si>
@@ -165,6 +166,51 @@
   <si>
     <t xml:space="preserve"> - уравнение</t>
   </si>
+  <si>
+    <t>НЕМА</t>
+  </si>
+  <si>
+    <t>2-винилимидазол</t>
+  </si>
+  <si>
+    <t>- данные, которые считываются программой</t>
+  </si>
+  <si>
+    <t>- данные, которые не считываются программой</t>
+  </si>
+  <si>
+    <t>2-ВИ</t>
+  </si>
+  <si>
+    <t>lmin</t>
+  </si>
+  <si>
+    <t>lmax</t>
+  </si>
+  <si>
+    <t>la</t>
+  </si>
+  <si>
+    <t>- уравнение</t>
+  </si>
+  <si>
+    <t>НЕМА V1 (мл)</t>
+  </si>
+  <si>
+    <t>НЕМА N1 (моль)</t>
+  </si>
+  <si>
+    <t>НЕМА f1 (мол.доля)</t>
+  </si>
+  <si>
+    <t>2-ВИ V2 (мл)</t>
+  </si>
+  <si>
+    <t>2-ВИ N2 (моль)</t>
+  </si>
+  <si>
+    <t>2-ВИ f2 (мол.доля)</t>
+  </si>
 </sst>
 </file>
 
@@ -175,7 +221,7 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,8 +265,55 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Cyr"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Symbol"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -245,8 +338,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB7CCE4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE5B7B6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD7E3BC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="28">
+  <borders count="58">
     <border>
       <left/>
       <right/>
@@ -611,11 +722,405 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -666,6 +1171,82 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -690,19 +1271,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1006,7 +1610,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
@@ -1018,10 +1622,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="38" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="21" t="s">
@@ -1054,23 +1658,23 @@
       <c r="L1" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="39" t="s">
+      <c r="O1" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="40"/>
-      <c r="R1" s="39" t="s">
+      <c r="P1" s="90"/>
+      <c r="R1" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="40"/>
+      <c r="S1" s="90"/>
       <c r="U1" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="44">
+      <c r="A2" s="36">
         <v>1</v>
       </c>
-      <c r="B2" s="47">
+      <c r="B2" s="39">
         <f>$P$2-A2</f>
         <v>5.5</v>
       </c>
@@ -1102,15 +1706,15 @@
         <f>E2/F2</f>
         <v>0.16792500971561986</v>
       </c>
-      <c r="J2" s="42">
+      <c r="J2" s="34">
         <f>I2*G2/H2</f>
         <v>0.2907805669662169</v>
       </c>
-      <c r="K2" s="42">
+      <c r="K2" s="34">
         <f>($S$5*(E2^2)+E2*F2)/($S$5*(E2^2)+2*E2*F2+$P$5*(F2^2))</f>
         <v>0.22527498043269453</v>
       </c>
-      <c r="L2" s="49">
+      <c r="L2" s="41">
         <f>K2*$U$2</f>
         <v>0.31538497260577231</v>
       </c>
@@ -1127,10 +1731,10 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="44">
+      <c r="A3" s="36">
         <v>1.3</v>
       </c>
-      <c r="B3" s="47">
+      <c r="B3" s="39">
         <f t="shared" ref="B3:B13" si="0">$P$2-A3</f>
         <v>5.2</v>
       </c>
@@ -1170,7 +1774,7 @@
         <f t="shared" ref="K3:K13" si="9">($S$5*(E3^2)+E3*F3)/($S$5*(E3^2)+2*E3*F3+$P$5*(F3^2))</f>
         <v>0.2723699688310926</v>
       </c>
-      <c r="L3" s="49">
+      <c r="L3" s="41">
         <f t="shared" ref="L3:L13" si="10">K3*$U$2</f>
         <v>0.38131795636352961</v>
       </c>
@@ -1188,10 +1792,10 @@
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="44">
+      <c r="A4" s="36">
         <v>1.6</v>
       </c>
-      <c r="B4" s="47">
+      <c r="B4" s="39">
         <f t="shared" si="0"/>
         <v>4.9000000000000004</v>
       </c>
@@ -1231,7 +1835,7 @@
         <f t="shared" si="9"/>
         <v>0.31417235452830183</v>
       </c>
-      <c r="L4" s="49">
+      <c r="L4" s="41">
         <f t="shared" si="10"/>
         <v>0.43984129633962255</v>
       </c>
@@ -1249,10 +1853,10 @@
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="44">
+      <c r="A5" s="36">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B5" s="47">
+      <c r="B5" s="39">
         <f t="shared" si="0"/>
         <v>4.3</v>
       </c>
@@ -1292,7 +1896,7 @@
         <f t="shared" si="9"/>
         <v>0.38696558524982189</v>
       </c>
-      <c r="L5" s="49">
+      <c r="L5" s="41">
         <f t="shared" si="10"/>
         <v>0.54175181934975059</v>
       </c>
@@ -1310,10 +1914,10 @@
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="44">
+      <c r="A6" s="36">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B6" s="47">
+      <c r="B6" s="39">
         <f t="shared" si="0"/>
         <v>4.2</v>
       </c>
@@ -1353,16 +1957,16 @@
         <f t="shared" si="9"/>
         <v>0.39810962229513575</v>
       </c>
-      <c r="L6" s="49">
+      <c r="L6" s="41">
         <f t="shared" si="10"/>
         <v>0.55735347121319001</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="44">
+      <c r="A7" s="36">
         <v>2.6</v>
       </c>
-      <c r="B7" s="47">
+      <c r="B7" s="39">
         <f t="shared" si="0"/>
         <v>3.9</v>
       </c>
@@ -1402,16 +2006,16 @@
         <f t="shared" si="9"/>
         <v>0.4304087059896905</v>
       </c>
-      <c r="L7" s="49">
+      <c r="L7" s="41">
         <f t="shared" si="10"/>
         <v>0.6025721883855667</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="44">
+      <c r="A8" s="36">
         <v>3</v>
       </c>
-      <c r="B8" s="47">
+      <c r="B8" s="39">
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
@@ -1451,16 +2055,16 @@
         <f t="shared" si="9"/>
         <v>0.47169613582630443</v>
       </c>
-      <c r="L8" s="49">
+      <c r="L8" s="41">
         <f t="shared" si="10"/>
         <v>0.6603745901568262</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="44">
+      <c r="A9" s="36">
         <v>3.3</v>
       </c>
-      <c r="B9" s="47">
+      <c r="B9" s="39">
         <f t="shared" si="0"/>
         <v>3.2</v>
       </c>
@@ -1500,16 +2104,16 @@
         <f t="shared" si="9"/>
         <v>0.50206643429845854</v>
       </c>
-      <c r="L9" s="49">
+      <c r="L9" s="41">
         <f t="shared" si="10"/>
         <v>0.70289300801784194</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="44">
+      <c r="A10" s="36">
         <v>3.6</v>
       </c>
-      <c r="B10" s="47">
+      <c r="B10" s="39">
         <f t="shared" si="0"/>
         <v>2.9</v>
       </c>
@@ -1549,16 +2153,16 @@
         <f t="shared" si="9"/>
         <v>0.53252454261239868</v>
       </c>
-      <c r="L10" s="49">
+      <c r="L10" s="41">
         <f t="shared" si="10"/>
         <v>0.74553435965735815</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="44">
+      <c r="A11" s="36">
         <v>4</v>
       </c>
-      <c r="B11" s="47">
+      <c r="B11" s="39">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
@@ -1598,16 +2202,16 @@
         <f t="shared" si="9"/>
         <v>0.57421779386324401</v>
       </c>
-      <c r="L11" s="49">
+      <c r="L11" s="41">
         <f t="shared" si="10"/>
         <v>0.80390491140854159</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="44">
+      <c r="A12" s="36">
         <v>4.3</v>
       </c>
-      <c r="B12" s="47">
+      <c r="B12" s="39">
         <f t="shared" si="0"/>
         <v>2.2000000000000002</v>
       </c>
@@ -1647,16 +2251,16 @@
         <f t="shared" si="9"/>
         <v>0.60707311907007533</v>
       </c>
-      <c r="L12" s="49">
+      <c r="L12" s="41">
         <f t="shared" si="10"/>
         <v>0.84990236669810537</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="45">
+      <c r="A13" s="37">
         <v>4.9000000000000004</v>
       </c>
-      <c r="B13" s="48">
+      <c r="B13" s="40">
         <f t="shared" si="0"/>
         <v>1.5999999999999996</v>
       </c>
@@ -1696,24 +2300,24 @@
         <f t="shared" si="9"/>
         <v>0.68001955530957647</v>
       </c>
-      <c r="L13" s="50">
+      <c r="L13" s="42">
         <f t="shared" si="10"/>
         <v>0.95202737743340704</v>
       </c>
       <c r="N13" s="6"/>
-      <c r="O13" s="41" t="s">
+      <c r="O13" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="P13" s="41"/>
-      <c r="Q13" s="41"/>
+      <c r="P13" s="91"/>
+      <c r="Q13" s="91"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="N14" s="7"/>
-      <c r="O14" s="41" t="s">
+      <c r="O14" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="P14" s="41"/>
-      <c r="Q14" s="41"/>
+      <c r="P14" s="91"/>
+      <c r="Q14" s="91"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
@@ -1732,34 +2336,34 @@
       <c r="F16" s="18"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="N17" s="38" t="s">
+      <c r="N17" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="O17" s="38"/>
-      <c r="P17" s="38"/>
+      <c r="O17" s="88"/>
+      <c r="P17" s="88"/>
       <c r="Q17" s="13" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="N18" s="38" t="s">
+      <c r="N18" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="O18" s="38"/>
-      <c r="P18" s="38"/>
+      <c r="O18" s="88"/>
+      <c r="P18" s="88"/>
       <c r="Q18" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="N22" s="34" t="s">
+      <c r="N22" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="O22" s="34"/>
-      <c r="P22" s="34"/>
-      <c r="Q22" s="34"/>
-      <c r="R22" s="34"/>
-      <c r="S22" s="34"/>
+      <c r="O22" s="84"/>
+      <c r="P22" s="84"/>
+      <c r="Q22" s="84"/>
+      <c r="R22" s="84"/>
+      <c r="S22" s="84"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="N23" s="14" t="s">
@@ -1802,20 +2406,20 @@
       </c>
     </row>
     <row r="29" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N29" s="34" t="s">
+      <c r="N29" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="O29" s="34"/>
-      <c r="P29" s="34"/>
-      <c r="Q29" s="34"/>
-      <c r="R29" s="34"/>
-      <c r="S29" s="34"/>
-      <c r="U29" s="35" t="s">
+      <c r="O29" s="84"/>
+      <c r="P29" s="84"/>
+      <c r="Q29" s="84"/>
+      <c r="R29" s="84"/>
+      <c r="S29" s="84"/>
+      <c r="U29" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="V29" s="36"/>
-      <c r="W29" s="36"/>
-      <c r="X29" s="37"/>
+      <c r="V29" s="86"/>
+      <c r="W29" s="86"/>
+      <c r="X29" s="87"/>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="N30" s="20" t="s">
@@ -1959,4 +2563,1450 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:24" ht="53.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="98" t="s">
+        <v>38</v>
+      </c>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="98" t="s">
+        <v>39</v>
+      </c>
+      <c r="S1" s="99"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="V1" s="48"/>
+      <c r="W1" s="48"/>
+      <c r="X1" s="48"/>
+    </row>
+    <row r="2" spans="1:24" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="50">
+        <v>1</v>
+      </c>
+      <c r="B2" s="51">
+        <v>4</v>
+      </c>
+      <c r="C2" s="52">
+        <v>1.15E-2</v>
+      </c>
+      <c r="D2" s="52">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="E2" s="52">
+        <v>0.26450000000000001</v>
+      </c>
+      <c r="F2" s="52">
+        <v>0.73550000000000004</v>
+      </c>
+      <c r="G2" s="52">
+        <v>0.873</v>
+      </c>
+      <c r="H2" s="52">
+        <v>0.6028</v>
+      </c>
+      <c r="I2" s="52">
+        <v>0.35970000000000002</v>
+      </c>
+      <c r="J2" s="53">
+        <v>0.52090000000000003</v>
+      </c>
+      <c r="K2" s="53">
+        <v>0.34250000000000003</v>
+      </c>
+      <c r="L2" s="54">
+        <v>0.41098000000000001</v>
+      </c>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="56">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="58">
+        <v>1.2</v>
+      </c>
+      <c r="V2" s="48"/>
+      <c r="W2" s="48"/>
+      <c r="X2" s="48"/>
+    </row>
+    <row r="3" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="50">
+        <v>1.3</v>
+      </c>
+      <c r="B3" s="51">
+        <v>3.7</v>
+      </c>
+      <c r="C3" s="52">
+        <v>1.49E-2</v>
+      </c>
+      <c r="D3" s="52">
+        <v>2.9600000000000001E-2</v>
+      </c>
+      <c r="E3" s="52">
+        <v>0.33579999999999999</v>
+      </c>
+      <c r="F3" s="52">
+        <v>0.66420000000000001</v>
+      </c>
+      <c r="G3" s="52">
+        <v>0.83879999999999999</v>
+      </c>
+      <c r="H3" s="52">
+        <v>0.64129999999999998</v>
+      </c>
+      <c r="I3" s="52">
+        <v>0.50549999999999995</v>
+      </c>
+      <c r="J3" s="52">
+        <v>0.66120000000000001</v>
+      </c>
+      <c r="K3" s="52">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="L3" s="54">
+        <v>0.47761999999999999</v>
+      </c>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="P3" s="56">
+        <v>1.04</v>
+      </c>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="S3" s="56">
+        <v>1.0820000000000001</v>
+      </c>
+      <c r="T3" s="48"/>
+      <c r="U3" s="48"/>
+      <c r="V3" s="48"/>
+      <c r="W3" s="48"/>
+      <c r="X3" s="48"/>
+    </row>
+    <row r="4" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="50">
+        <v>1.6</v>
+      </c>
+      <c r="B4" s="51">
+        <v>3.4</v>
+      </c>
+      <c r="C4" s="52">
+        <v>1.84E-2</v>
+      </c>
+      <c r="D4" s="52">
+        <v>2.7199999999999998E-2</v>
+      </c>
+      <c r="E4" s="52">
+        <v>0.4037</v>
+      </c>
+      <c r="F4" s="52">
+        <v>0.59630000000000005</v>
+      </c>
+      <c r="G4" s="52">
+        <v>0.80620000000000003</v>
+      </c>
+      <c r="H4" s="52">
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="I4" s="52">
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="J4" s="52">
+        <v>0.80510000000000004</v>
+      </c>
+      <c r="K4" s="52">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="L4" s="54">
+        <v>0.53520000000000001</v>
+      </c>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="56">
+        <v>130.13999999999999</v>
+      </c>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="S4" s="56">
+        <v>94.11</v>
+      </c>
+      <c r="T4" s="48"/>
+      <c r="U4" s="48"/>
+      <c r="V4" s="48"/>
+      <c r="W4" s="48"/>
+      <c r="X4" s="48"/>
+    </row>
+    <row r="5" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="50">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B5" s="51">
+        <v>2.8</v>
+      </c>
+      <c r="C5" s="52">
+        <v>2.53E-2</v>
+      </c>
+      <c r="D5" s="52">
+        <v>2.24E-2</v>
+      </c>
+      <c r="E5" s="52">
+        <v>0.53059999999999996</v>
+      </c>
+      <c r="F5" s="52">
+        <v>0.46939999999999998</v>
+      </c>
+      <c r="G5" s="52">
+        <v>0.74529999999999996</v>
+      </c>
+      <c r="H5" s="52">
+        <v>0.74650000000000005</v>
+      </c>
+      <c r="I5" s="52">
+        <v>1.1304000000000001</v>
+      </c>
+      <c r="J5" s="52">
+        <v>1.1286</v>
+      </c>
+      <c r="K5" s="52">
+        <v>0.5302</v>
+      </c>
+      <c r="L5" s="54">
+        <v>0.63624000000000003</v>
+      </c>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="56">
+        <v>0.46</v>
+      </c>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="S5" s="56">
+        <v>0.52</v>
+      </c>
+      <c r="T5" s="48"/>
+      <c r="U5" s="48"/>
+      <c r="V5" s="48"/>
+      <c r="W5" s="48"/>
+      <c r="X5" s="48"/>
+    </row>
+    <row r="6" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="50">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B6" s="51">
+        <v>2.7</v>
+      </c>
+      <c r="C6" s="52">
+        <v>2.64E-2</v>
+      </c>
+      <c r="D6" s="52">
+        <v>2.1600000000000001E-2</v>
+      </c>
+      <c r="E6" s="52">
+        <v>0.55069999999999997</v>
+      </c>
+      <c r="F6" s="52">
+        <v>0.44929999999999998</v>
+      </c>
+      <c r="G6" s="52">
+        <v>0.73570000000000002</v>
+      </c>
+      <c r="H6" s="52">
+        <v>0.75739999999999996</v>
+      </c>
+      <c r="I6" s="52">
+        <v>1.2256</v>
+      </c>
+      <c r="J6" s="52">
+        <v>1.1904999999999999</v>
+      </c>
+      <c r="K6" s="52">
+        <v>0.54349999999999998</v>
+      </c>
+      <c r="L6" s="54">
+        <v>0.65217000000000003</v>
+      </c>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="48"/>
+      <c r="Q6" s="48"/>
+      <c r="R6" s="48"/>
+      <c r="S6" s="48"/>
+      <c r="T6" s="48"/>
+      <c r="U6" s="48"/>
+      <c r="V6" s="48"/>
+      <c r="W6" s="48"/>
+      <c r="X6" s="48"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" s="50">
+        <v>2.6</v>
+      </c>
+      <c r="B7" s="51">
+        <v>2.4</v>
+      </c>
+      <c r="C7" s="52">
+        <v>2.9899999999999999E-2</v>
+      </c>
+      <c r="D7" s="52">
+        <v>1.9199999999999998E-2</v>
+      </c>
+      <c r="E7" s="52">
+        <v>0.60919999999999996</v>
+      </c>
+      <c r="F7" s="52">
+        <v>0.39079999999999998</v>
+      </c>
+      <c r="G7" s="52">
+        <v>0.70760000000000001</v>
+      </c>
+      <c r="H7" s="52">
+        <v>0.78890000000000005</v>
+      </c>
+      <c r="I7" s="52">
+        <v>1.5586</v>
+      </c>
+      <c r="J7" s="52">
+        <v>1.3978999999999999</v>
+      </c>
+      <c r="K7" s="52">
+        <v>0.58299999999999996</v>
+      </c>
+      <c r="L7" s="54">
+        <v>0.69955999999999996</v>
+      </c>
+      <c r="M7" s="48"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="48"/>
+      <c r="P7" s="48"/>
+      <c r="Q7" s="48"/>
+      <c r="R7" s="48"/>
+      <c r="S7" s="48"/>
+      <c r="T7" s="48"/>
+      <c r="U7" s="48"/>
+      <c r="V7" s="48"/>
+      <c r="W7" s="48"/>
+      <c r="X7" s="48"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" s="50">
+        <v>3</v>
+      </c>
+      <c r="B8" s="51">
+        <v>2</v>
+      </c>
+      <c r="C8" s="52">
+        <v>3.4500000000000003E-2</v>
+      </c>
+      <c r="D8" s="52">
+        <v>1.6E-2</v>
+      </c>
+      <c r="E8" s="52">
+        <v>0.68330000000000002</v>
+      </c>
+      <c r="F8" s="52">
+        <v>0.31669999999999998</v>
+      </c>
+      <c r="G8" s="52">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="H8" s="52">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="I8" s="52">
+        <v>2.1579999999999999</v>
+      </c>
+      <c r="J8" s="52">
+        <v>1.7493000000000001</v>
+      </c>
+      <c r="K8" s="52">
+        <v>0.63629999999999998</v>
+      </c>
+      <c r="L8" s="54">
+        <v>0.76353000000000004</v>
+      </c>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="48"/>
+      <c r="R8" s="48"/>
+      <c r="S8" s="48"/>
+      <c r="T8" s="48"/>
+      <c r="U8" s="48"/>
+      <c r="V8" s="48"/>
+      <c r="W8" s="48"/>
+      <c r="X8" s="48"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" s="50">
+        <v>3.3</v>
+      </c>
+      <c r="B9" s="51">
+        <v>1.7</v>
+      </c>
+      <c r="C9" s="52">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="D9" s="52">
+        <v>1.3599999999999999E-2</v>
+      </c>
+      <c r="E9" s="52">
+        <v>0.73629999999999995</v>
+      </c>
+      <c r="F9" s="52">
+        <v>0.26369999999999999</v>
+      </c>
+      <c r="G9" s="52">
+        <v>0.64659999999999995</v>
+      </c>
+      <c r="H9" s="52">
+        <v>0.85760000000000003</v>
+      </c>
+      <c r="I9" s="52">
+        <v>2.7928000000000002</v>
+      </c>
+      <c r="J9" s="52">
+        <v>2.1053999999999999</v>
+      </c>
+      <c r="K9" s="52">
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="L9" s="54">
+        <v>0.81357999999999997</v>
+      </c>
+      <c r="M9" s="48"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="48"/>
+      <c r="P9" s="48"/>
+      <c r="Q9" s="48"/>
+      <c r="R9" s="48"/>
+      <c r="S9" s="48"/>
+      <c r="T9" s="48"/>
+      <c r="U9" s="48"/>
+      <c r="V9" s="48"/>
+      <c r="W9" s="48"/>
+      <c r="X9" s="48"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" s="50">
+        <v>3.6</v>
+      </c>
+      <c r="B10" s="51">
+        <v>1.4</v>
+      </c>
+      <c r="C10" s="52">
+        <v>4.1399999999999999E-2</v>
+      </c>
+      <c r="D10" s="52">
+        <v>1.12E-2</v>
+      </c>
+      <c r="E10" s="52">
+        <v>0.78720000000000001</v>
+      </c>
+      <c r="F10" s="52">
+        <v>0.21279999999999999</v>
+      </c>
+      <c r="G10" s="52">
+        <v>0.62209999999999999</v>
+      </c>
+      <c r="H10" s="52">
+        <v>0.8851</v>
+      </c>
+      <c r="I10" s="52">
+        <v>3.6995</v>
+      </c>
+      <c r="J10" s="52">
+        <v>2.6004</v>
+      </c>
+      <c r="K10" s="52">
+        <v>0.72230000000000005</v>
+      </c>
+      <c r="L10" s="54">
+        <v>0.86670000000000003</v>
+      </c>
+      <c r="M10" s="48"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="48"/>
+      <c r="P10" s="48"/>
+      <c r="Q10" s="48"/>
+      <c r="R10" s="48"/>
+      <c r="S10" s="48"/>
+      <c r="T10" s="48"/>
+      <c r="U10" s="48"/>
+      <c r="V10" s="48"/>
+      <c r="W10" s="48"/>
+      <c r="X10" s="48"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" s="50">
+        <v>4</v>
+      </c>
+      <c r="B11" s="51">
+        <v>1</v>
+      </c>
+      <c r="C11" s="52">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="D11" s="52">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E11" s="52">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="F11" s="52">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="G11" s="52">
+        <v>0.59109999999999996</v>
+      </c>
+      <c r="H11" s="52">
+        <v>0.92010000000000003</v>
+      </c>
+      <c r="I11" s="52">
+        <v>5.7548000000000004</v>
+      </c>
+      <c r="J11" s="52">
+        <v>3.6970000000000001</v>
+      </c>
+      <c r="K11" s="52">
+        <v>0.78710000000000002</v>
+      </c>
+      <c r="L11" s="54">
+        <v>0.94452000000000003</v>
+      </c>
+      <c r="M11" s="48"/>
+      <c r="N11" s="48"/>
+      <c r="O11" s="48"/>
+      <c r="P11" s="48"/>
+      <c r="Q11" s="48"/>
+      <c r="R11" s="48"/>
+      <c r="S11" s="48"/>
+      <c r="T11" s="48"/>
+      <c r="U11" s="48"/>
+      <c r="V11" s="48"/>
+      <c r="W11" s="48"/>
+      <c r="X11" s="48"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" s="50">
+        <v>4.3</v>
+      </c>
+      <c r="B12" s="51">
+        <v>0.7</v>
+      </c>
+      <c r="C12" s="52">
+        <v>4.9399999999999999E-2</v>
+      </c>
+      <c r="D12" s="52">
+        <v>5.5999999999999999E-3</v>
+      </c>
+      <c r="E12" s="52">
+        <v>0.89839999999999998</v>
+      </c>
+      <c r="F12" s="52">
+        <v>0.1016</v>
+      </c>
+      <c r="G12" s="52">
+        <v>0.56879999999999997</v>
+      </c>
+      <c r="H12" s="52">
+        <v>0.94510000000000005</v>
+      </c>
+      <c r="I12" s="52">
+        <v>8.8376999999999999</v>
+      </c>
+      <c r="J12" s="52">
+        <v>5.3188000000000004</v>
+      </c>
+      <c r="K12" s="52">
+        <v>0.8417</v>
+      </c>
+      <c r="L12" s="54">
+        <v>1.0100899999999999</v>
+      </c>
+      <c r="M12" s="48"/>
+      <c r="N12" s="48"/>
+      <c r="O12" s="48"/>
+      <c r="P12" s="48"/>
+      <c r="Q12" s="48"/>
+      <c r="R12" s="48"/>
+      <c r="S12" s="48"/>
+      <c r="T12" s="48"/>
+      <c r="U12" s="48"/>
+      <c r="V12" s="48"/>
+      <c r="W12" s="48"/>
+      <c r="X12" s="48"/>
+    </row>
+    <row r="13" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="61">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="B13" s="62">
+        <v>0.1</v>
+      </c>
+      <c r="C13" s="63">
+        <v>5.6300000000000003E-2</v>
+      </c>
+      <c r="D13" s="63">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="E13" s="63">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="F13" s="63">
+        <v>1.4E-2</v>
+      </c>
+      <c r="G13" s="63">
+        <v>0.52669999999999995</v>
+      </c>
+      <c r="H13" s="63">
+        <v>0.99239999999999995</v>
+      </c>
+      <c r="I13" s="63">
+        <v>70.496099999999998</v>
+      </c>
+      <c r="J13" s="63">
+        <v>37.413800000000002</v>
+      </c>
+      <c r="K13" s="63">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="L13" s="64">
+        <v>1.16876</v>
+      </c>
+      <c r="M13" s="48"/>
+      <c r="N13" s="65"/>
+      <c r="O13" s="100" t="s">
+        <v>40</v>
+      </c>
+      <c r="P13" s="100"/>
+      <c r="Q13" s="100"/>
+      <c r="R13" s="48"/>
+      <c r="S13" s="48"/>
+      <c r="T13" s="48"/>
+      <c r="U13" s="48"/>
+      <c r="V13" s="48"/>
+      <c r="W13" s="48"/>
+      <c r="X13" s="48"/>
+    </row>
+    <row r="14" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="48"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="48"/>
+      <c r="N14" s="66"/>
+      <c r="O14" s="100" t="s">
+        <v>41</v>
+      </c>
+      <c r="P14" s="100"/>
+      <c r="Q14" s="100"/>
+      <c r="R14" s="48"/>
+      <c r="S14" s="48"/>
+      <c r="T14" s="48"/>
+      <c r="U14" s="48"/>
+      <c r="V14" s="48"/>
+      <c r="W14" s="48"/>
+      <c r="X14" s="48"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15" s="47"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="48"/>
+      <c r="N15" s="48"/>
+      <c r="O15" s="48"/>
+      <c r="P15" s="48"/>
+      <c r="Q15" s="48"/>
+      <c r="R15" s="48"/>
+      <c r="S15" s="48"/>
+      <c r="T15" s="48"/>
+      <c r="U15" s="48"/>
+      <c r="V15" s="48"/>
+      <c r="W15" s="48"/>
+      <c r="X15" s="48"/>
+    </row>
+    <row r="16" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="47"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="48"/>
+      <c r="O16" s="48"/>
+      <c r="P16" s="48"/>
+      <c r="Q16" s="48"/>
+      <c r="R16" s="48"/>
+      <c r="S16" s="48"/>
+      <c r="T16" s="48"/>
+      <c r="U16" s="48"/>
+      <c r="V16" s="48"/>
+      <c r="W16" s="48"/>
+      <c r="X16" s="48"/>
+    </row>
+    <row r="17" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="48"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="48"/>
+      <c r="N17" s="101" t="s">
+        <v>19</v>
+      </c>
+      <c r="O17" s="102"/>
+      <c r="P17" s="103"/>
+      <c r="Q17" s="67" t="s">
+        <v>42</v>
+      </c>
+      <c r="R17" s="48"/>
+      <c r="S17" s="48"/>
+      <c r="T17" s="48"/>
+      <c r="U17" s="48"/>
+      <c r="V17" s="48"/>
+      <c r="W17" s="48"/>
+      <c r="X17" s="48"/>
+    </row>
+    <row r="18" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="48"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="101" t="s">
+        <v>20</v>
+      </c>
+      <c r="O18" s="102"/>
+      <c r="P18" s="103"/>
+      <c r="Q18" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="R18" s="48"/>
+      <c r="S18" s="48"/>
+      <c r="T18" s="48"/>
+      <c r="U18" s="48"/>
+      <c r="V18" s="48"/>
+      <c r="W18" s="48"/>
+      <c r="X18" s="48"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A19" s="48"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="48"/>
+      <c r="O19" s="48"/>
+      <c r="P19" s="48"/>
+      <c r="Q19" s="48"/>
+      <c r="R19" s="48"/>
+      <c r="S19" s="48"/>
+      <c r="T19" s="48"/>
+      <c r="U19" s="48"/>
+      <c r="V19" s="48"/>
+      <c r="W19" s="48"/>
+      <c r="X19" s="48"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A20" s="48"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="48"/>
+      <c r="N20" s="48"/>
+      <c r="O20" s="48"/>
+      <c r="P20" s="48"/>
+      <c r="Q20" s="48"/>
+      <c r="R20" s="48"/>
+      <c r="S20" s="48"/>
+      <c r="T20" s="48"/>
+      <c r="U20" s="48"/>
+      <c r="V20" s="48"/>
+      <c r="W20" s="48"/>
+      <c r="X20" s="48"/>
+    </row>
+    <row r="21" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="48"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="48"/>
+      <c r="O21" s="48"/>
+      <c r="P21" s="48"/>
+      <c r="Q21" s="48"/>
+      <c r="R21" s="48"/>
+      <c r="S21" s="48"/>
+      <c r="T21" s="48"/>
+      <c r="U21" s="48"/>
+      <c r="V21" s="48"/>
+      <c r="W21" s="48"/>
+      <c r="X21" s="48"/>
+    </row>
+    <row r="22" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="48"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="48"/>
+      <c r="M22" s="48"/>
+      <c r="N22" s="92" t="s">
+        <v>26</v>
+      </c>
+      <c r="O22" s="93"/>
+      <c r="P22" s="93"/>
+      <c r="Q22" s="93"/>
+      <c r="R22" s="93"/>
+      <c r="S22" s="94"/>
+      <c r="T22" s="48"/>
+      <c r="U22" s="48"/>
+      <c r="V22" s="48"/>
+      <c r="W22" s="48"/>
+      <c r="X22" s="48"/>
+    </row>
+    <row r="23" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="48"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="48"/>
+      <c r="M23" s="48"/>
+      <c r="N23" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="O23" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="P23" s="68" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q23" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="R23" s="70"/>
+      <c r="S23" s="70"/>
+      <c r="T23" s="48"/>
+      <c r="U23" s="48"/>
+      <c r="V23" s="48"/>
+      <c r="W23" s="48"/>
+      <c r="X23" s="48"/>
+    </row>
+    <row r="24" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="48"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="48"/>
+      <c r="L24" s="48"/>
+      <c r="M24" s="48"/>
+      <c r="N24" s="67">
+        <v>140</v>
+      </c>
+      <c r="O24" s="67">
+        <v>450</v>
+      </c>
+      <c r="P24" s="67">
+        <v>243</v>
+      </c>
+      <c r="Q24" s="67">
+        <v>42</v>
+      </c>
+      <c r="R24" s="70"/>
+      <c r="S24" s="70"/>
+      <c r="T24" s="48"/>
+      <c r="U24" s="48"/>
+      <c r="V24" s="48"/>
+      <c r="W24" s="48"/>
+      <c r="X24" s="48"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A25" s="48"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="48"/>
+      <c r="M25" s="48"/>
+      <c r="N25" s="48"/>
+      <c r="O25" s="48"/>
+      <c r="P25" s="48"/>
+      <c r="Q25" s="48"/>
+      <c r="R25" s="48"/>
+      <c r="S25" s="48"/>
+      <c r="T25" s="48"/>
+      <c r="U25" s="48"/>
+      <c r="V25" s="48"/>
+      <c r="W25" s="48"/>
+      <c r="X25" s="48"/>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A26" s="48"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="48"/>
+      <c r="M26" s="48"/>
+      <c r="N26" s="48"/>
+      <c r="O26" s="48"/>
+      <c r="P26" s="48"/>
+      <c r="Q26" s="48"/>
+      <c r="R26" s="48"/>
+      <c r="S26" s="48"/>
+      <c r="T26" s="48"/>
+      <c r="U26" s="48"/>
+      <c r="V26" s="48"/>
+      <c r="W26" s="48"/>
+      <c r="X26" s="48"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A27" s="48"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="48"/>
+      <c r="L27" s="48"/>
+      <c r="M27" s="48"/>
+      <c r="N27" s="48"/>
+      <c r="O27" s="48"/>
+      <c r="P27" s="48"/>
+      <c r="Q27" s="48"/>
+      <c r="R27" s="48"/>
+      <c r="S27" s="48"/>
+      <c r="T27" s="48"/>
+      <c r="U27" s="48"/>
+      <c r="V27" s="48"/>
+      <c r="W27" s="48"/>
+      <c r="X27" s="48"/>
+    </row>
+    <row r="28" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="48"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="48"/>
+      <c r="K28" s="48"/>
+      <c r="L28" s="48"/>
+      <c r="M28" s="48"/>
+      <c r="N28" s="71" t="s">
+        <v>36</v>
+      </c>
+      <c r="O28" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="P28" s="48"/>
+      <c r="Q28" s="48"/>
+      <c r="R28" s="48"/>
+      <c r="S28" s="48"/>
+      <c r="T28" s="48"/>
+      <c r="U28" s="48"/>
+      <c r="V28" s="48"/>
+      <c r="W28" s="48"/>
+      <c r="X28" s="48"/>
+    </row>
+    <row r="29" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="48"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="48"/>
+      <c r="J29" s="48"/>
+      <c r="K29" s="48"/>
+      <c r="L29" s="48"/>
+      <c r="M29" s="48"/>
+      <c r="N29" s="92" t="s">
+        <v>30</v>
+      </c>
+      <c r="O29" s="93"/>
+      <c r="P29" s="93"/>
+      <c r="Q29" s="93"/>
+      <c r="R29" s="93"/>
+      <c r="S29" s="94"/>
+      <c r="T29" s="48"/>
+      <c r="U29" s="95" t="s">
+        <v>33</v>
+      </c>
+      <c r="V29" s="96"/>
+      <c r="W29" s="96"/>
+      <c r="X29" s="97"/>
+    </row>
+    <row r="30" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="48"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="48"/>
+      <c r="J30" s="48"/>
+      <c r="K30" s="48"/>
+      <c r="L30" s="48"/>
+      <c r="M30" s="48"/>
+      <c r="N30" s="73" t="s">
+        <v>31</v>
+      </c>
+      <c r="O30" s="73" t="s">
+        <v>32</v>
+      </c>
+      <c r="P30" s="70"/>
+      <c r="Q30" s="70"/>
+      <c r="R30" s="70"/>
+      <c r="S30" s="70"/>
+      <c r="T30" s="48"/>
+      <c r="U30" s="74" t="s">
+        <v>34</v>
+      </c>
+      <c r="V30" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="W30" s="76"/>
+      <c r="X30" s="77"/>
+    </row>
+    <row r="31" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="78"/>
+      <c r="B31" s="78"/>
+      <c r="C31" s="78"/>
+      <c r="D31" s="78"/>
+      <c r="E31" s="78"/>
+      <c r="F31" s="78"/>
+      <c r="G31" s="78"/>
+      <c r="H31" s="78"/>
+      <c r="I31" s="78"/>
+      <c r="J31" s="48"/>
+      <c r="K31" s="48"/>
+      <c r="L31" s="48"/>
+      <c r="M31" s="48"/>
+      <c r="N31" s="67">
+        <v>0</v>
+      </c>
+      <c r="O31" s="67">
+        <v>1.4239999999999999</v>
+      </c>
+      <c r="P31" s="70"/>
+      <c r="Q31" s="70"/>
+      <c r="R31" s="70"/>
+      <c r="S31" s="70"/>
+      <c r="T31" s="48"/>
+      <c r="U31" s="79">
+        <v>0.1</v>
+      </c>
+      <c r="V31" s="67">
+        <v>0.1424</v>
+      </c>
+      <c r="W31" s="70"/>
+      <c r="X31" s="57"/>
+    </row>
+    <row r="32" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="48"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="48"/>
+      <c r="J32" s="48"/>
+      <c r="K32" s="48"/>
+      <c r="L32" s="48"/>
+      <c r="M32" s="48"/>
+      <c r="N32" s="48"/>
+      <c r="O32" s="48"/>
+      <c r="P32" s="48"/>
+      <c r="Q32" s="48"/>
+      <c r="R32" s="48"/>
+      <c r="S32" s="48"/>
+      <c r="T32" s="48"/>
+      <c r="U32" s="79">
+        <v>0.2</v>
+      </c>
+      <c r="V32" s="67">
+        <v>0.2848</v>
+      </c>
+      <c r="W32" s="70"/>
+      <c r="X32" s="57"/>
+    </row>
+    <row r="33" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="48"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="48"/>
+      <c r="J33" s="48"/>
+      <c r="K33" s="48"/>
+      <c r="L33" s="48"/>
+      <c r="M33" s="48"/>
+      <c r="N33" s="48"/>
+      <c r="O33" s="48"/>
+      <c r="P33" s="48"/>
+      <c r="Q33" s="48"/>
+      <c r="R33" s="48"/>
+      <c r="S33" s="48"/>
+      <c r="T33" s="48"/>
+      <c r="U33" s="79">
+        <v>0.3</v>
+      </c>
+      <c r="V33" s="67">
+        <v>0.42720000000000002</v>
+      </c>
+      <c r="W33" s="70"/>
+      <c r="X33" s="57"/>
+    </row>
+    <row r="34" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="48"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="48"/>
+      <c r="I34" s="48"/>
+      <c r="J34" s="48"/>
+      <c r="K34" s="48"/>
+      <c r="L34" s="48"/>
+      <c r="M34" s="48"/>
+      <c r="N34" s="48"/>
+      <c r="O34" s="48"/>
+      <c r="P34" s="48"/>
+      <c r="Q34" s="48"/>
+      <c r="R34" s="48"/>
+      <c r="S34" s="48"/>
+      <c r="T34" s="48"/>
+      <c r="U34" s="79">
+        <v>0.4</v>
+      </c>
+      <c r="V34" s="67">
+        <v>0.5696</v>
+      </c>
+      <c r="W34" s="70"/>
+      <c r="X34" s="57"/>
+    </row>
+    <row r="35" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="48"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="48"/>
+      <c r="J35" s="48"/>
+      <c r="K35" s="48"/>
+      <c r="L35" s="48"/>
+      <c r="M35" s="48"/>
+      <c r="N35" s="48"/>
+      <c r="O35" s="48"/>
+      <c r="P35" s="48"/>
+      <c r="Q35" s="48"/>
+      <c r="R35" s="48"/>
+      <c r="S35" s="48"/>
+      <c r="T35" s="48"/>
+      <c r="U35" s="79">
+        <v>0.5</v>
+      </c>
+      <c r="V35" s="67">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="W35" s="70"/>
+      <c r="X35" s="57"/>
+    </row>
+    <row r="36" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="48"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
+      <c r="H36" s="48"/>
+      <c r="I36" s="48"/>
+      <c r="J36" s="48"/>
+      <c r="K36" s="48"/>
+      <c r="L36" s="48"/>
+      <c r="M36" s="48"/>
+      <c r="N36" s="48"/>
+      <c r="O36" s="48"/>
+      <c r="P36" s="48"/>
+      <c r="Q36" s="48"/>
+      <c r="R36" s="48"/>
+      <c r="S36" s="48"/>
+      <c r="T36" s="48"/>
+      <c r="U36" s="79">
+        <v>0.6</v>
+      </c>
+      <c r="V36" s="67">
+        <v>0.85440000000000005</v>
+      </c>
+      <c r="W36" s="70"/>
+      <c r="X36" s="57"/>
+    </row>
+    <row r="37" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="48"/>
+      <c r="B37" s="48"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="48"/>
+      <c r="J37" s="48"/>
+      <c r="K37" s="48"/>
+      <c r="L37" s="48"/>
+      <c r="M37" s="48"/>
+      <c r="N37" s="48"/>
+      <c r="O37" s="48"/>
+      <c r="P37" s="48"/>
+      <c r="Q37" s="48"/>
+      <c r="R37" s="48"/>
+      <c r="S37" s="48"/>
+      <c r="T37" s="48"/>
+      <c r="U37" s="79">
+        <v>0.7</v>
+      </c>
+      <c r="V37" s="67">
+        <v>0.99680000000000002</v>
+      </c>
+      <c r="W37" s="70"/>
+      <c r="X37" s="57"/>
+    </row>
+    <row r="38" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="48"/>
+      <c r="B38" s="48"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="48"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="48"/>
+      <c r="I38" s="48"/>
+      <c r="J38" s="48"/>
+      <c r="K38" s="48"/>
+      <c r="L38" s="48"/>
+      <c r="M38" s="48"/>
+      <c r="N38" s="48"/>
+      <c r="O38" s="48"/>
+      <c r="P38" s="48"/>
+      <c r="Q38" s="48"/>
+      <c r="R38" s="48"/>
+      <c r="S38" s="48"/>
+      <c r="T38" s="48"/>
+      <c r="U38" s="80">
+        <v>0.8</v>
+      </c>
+      <c r="V38" s="81">
+        <v>1.1392</v>
+      </c>
+      <c r="W38" s="82"/>
+      <c r="X38" s="83"/>
+    </row>
+    <row r="39" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="N22:S22"/>
+    <mergeCell ref="N29:S29"/>
+    <mergeCell ref="U29:X29"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="N18:P18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>